--- a/v4/ESSAI.xlsx
+++ b/v4/ESSAI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\exportXML\v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95C5E11-1728-484F-B173-B525437F4C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732F7F9A-9A73-4814-90C8-7ECF2DB542B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{63C16829-5F63-4AFA-813D-8CC7D457B340}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7046" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7047" uniqueCount="801">
   <si>
     <t>Id Client</t>
   </si>
@@ -2547,7 +2547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2581,10 +2581,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2597,9 +2597,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2939,26 +2936,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C45058-0F84-44B4-9BBB-85F83CAC53D4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD642"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="V43" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4:AD304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="19" width="36.42578125" customWidth="1"/>
+    <col min="1" max="19" width="36.44140625" customWidth="1"/>
     <col min="20" max="20" width="51" customWidth="1"/>
-    <col min="21" max="21" width="27.28515625" customWidth="1"/>
-    <col min="22" max="22" width="21.42578125" customWidth="1"/>
-    <col min="23" max="23" width="24.28515625" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
+    <col min="21" max="21" width="27.33203125" customWidth="1"/>
+    <col min="22" max="22" width="21.44140625" customWidth="1"/>
+    <col min="23" max="23" width="24.33203125" customWidth="1"/>
+    <col min="24" max="24" width="23.109375" customWidth="1"/>
     <col min="25" max="27" width="8" customWidth="1"/>
-    <col min="28" max="28" width="24.42578125" customWidth="1"/>
-    <col min="29" max="30" width="36.42578125" customWidth="1"/>
+    <col min="28" max="28" width="24.44140625" customWidth="1"/>
+    <col min="29" max="30" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3050,7 +3048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>3</v>
       </c>
@@ -3087,7 +3085,7 @@
       <c r="L2" s="26">
         <v>17</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="26">
         <v>18</v>
       </c>
       <c r="N2" s="26">
@@ -3096,53 +3094,53 @@
       <c r="O2" s="26">
         <v>20</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="27">
         <v>21</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="27">
         <v>23</v>
       </c>
-      <c r="R2" s="28">
+      <c r="R2" s="27">
         <v>24</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="27">
         <v>25</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="27">
         <v>31</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="27">
         <v>35</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="27">
         <v>36</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="27">
         <v>37</v>
       </c>
-      <c r="X2" s="28">
+      <c r="X2" s="27">
         <v>-1</v>
       </c>
-      <c r="Y2" s="28">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="28">
+      <c r="Y2" s="27">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="27">
         <v>41</v>
       </c>
-      <c r="AA2" s="28">
+      <c r="AA2" s="27">
         <v>42</v>
       </c>
-      <c r="AB2" s="28">
+      <c r="AB2" s="27">
         <v>43</v>
       </c>
-      <c r="AC2" s="28">
+      <c r="AC2" s="27">
         <v>46</v>
       </c>
       <c r="AD2" s="26">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -3216,15 +3214,15 @@
         <v>29524</v>
       </c>
       <c r="Y3" s="1">
-        <f>YEAR(X3)</f>
+        <f t="shared" ref="Y3:Y66" si="0">YEAR(X3)</f>
         <v>1980</v>
       </c>
       <c r="Z3" s="1">
-        <f>MONTH(X3)</f>
+        <f t="shared" ref="Z3:Z66" si="1">MONTH(X3)</f>
         <v>10</v>
       </c>
       <c r="AA3" s="1">
-        <f>DAY(X3)</f>
+        <f t="shared" ref="AA3:AA66" si="2">DAY(X3)</f>
         <v>30</v>
       </c>
       <c r="AB3" s="1" t="s">
@@ -3237,7 +3235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3311,15 +3309,15 @@
         <v>31742</v>
       </c>
       <c r="Y4" s="1">
-        <f>YEAR(X4)</f>
+        <f t="shared" si="0"/>
         <v>1986</v>
       </c>
       <c r="Z4" s="1">
-        <f>MONTH(X4)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="AA4" s="1">
-        <f>DAY(X4)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="AB4" s="1" t="s">
@@ -3332,7 +3330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -3406,15 +3404,15 @@
         <v>23036</v>
       </c>
       <c r="Y5" s="1">
-        <f>YEAR(X5)</f>
+        <f t="shared" si="0"/>
         <v>1963</v>
       </c>
       <c r="Z5" s="1">
-        <f>MONTH(X5)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA5" s="1">
-        <f>DAY(X5)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="AB5" s="1" t="s">
@@ -3427,7 +3425,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -3501,15 +3499,15 @@
         <v>34248</v>
       </c>
       <c r="Y6" s="1">
-        <f>YEAR(X6)</f>
+        <f t="shared" si="0"/>
         <v>1993</v>
       </c>
       <c r="Z6" s="1">
-        <f>MONTH(X6)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AA6" s="1">
-        <f>DAY(X6)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AB6" s="1" t="s">
@@ -3522,7 +3520,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -3596,15 +3594,15 @@
         <v>20797</v>
       </c>
       <c r="Y7" s="1">
-        <f>YEAR(X7)</f>
+        <f t="shared" si="0"/>
         <v>1956</v>
       </c>
       <c r="Z7" s="1">
-        <f>MONTH(X7)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AA7" s="1">
-        <f>DAY(X7)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AB7" s="1" t="s">
@@ -3617,7 +3615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -3691,15 +3689,15 @@
         <v>24403</v>
       </c>
       <c r="Y8" s="1">
-        <f>YEAR(X8)</f>
+        <f t="shared" si="0"/>
         <v>1966</v>
       </c>
       <c r="Z8" s="1">
-        <f>MONTH(X8)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AA8" s="1">
-        <f>DAY(X8)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="AB8" s="1" t="s">
@@ -3712,7 +3710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -3786,15 +3784,15 @@
         <v>23988</v>
       </c>
       <c r="Y9" s="1">
-        <f>YEAR(X9)</f>
+        <f t="shared" si="0"/>
         <v>1965</v>
       </c>
       <c r="Z9" s="1">
-        <f>MONTH(X9)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AA9" s="1">
-        <f>DAY(X9)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB9" s="1" t="s">
@@ -3807,7 +3805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -3881,15 +3879,15 @@
         <v>24526</v>
       </c>
       <c r="Y10" s="1">
-        <f>YEAR(X10)</f>
+        <f t="shared" si="0"/>
         <v>1967</v>
       </c>
       <c r="Z10" s="1">
-        <f>MONTH(X10)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA10" s="1">
-        <f>DAY(X10)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="AB10" s="1" t="s">
@@ -3902,7 +3900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -3976,15 +3974,15 @@
         <v>26743</v>
       </c>
       <c r="Y11" s="1">
-        <f>YEAR(X11)</f>
+        <f t="shared" si="0"/>
         <v>1973</v>
       </c>
       <c r="Z11" s="1">
-        <f>MONTH(X11)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA11" s="1">
-        <f>DAY(X11)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AB11" s="1" t="s">
@@ -3997,7 +3995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -4071,15 +4069,15 @@
         <v>27026</v>
       </c>
       <c r="Y12" s="1">
-        <f>YEAR(X12)</f>
+        <f t="shared" si="0"/>
         <v>1973</v>
       </c>
       <c r="Z12" s="1">
-        <f>MONTH(X12)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AA12" s="1">
-        <f>DAY(X12)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="AB12" s="1" t="s">
@@ -4092,7 +4090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -4166,26 +4164,28 @@
         <v>29921</v>
       </c>
       <c r="Y13" s="6">
-        <f>YEAR(X13)</f>
+        <f t="shared" si="0"/>
         <v>1981</v>
       </c>
       <c r="Z13" s="6">
-        <f>MONTH(X13)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AA13" s="6">
-        <f>DAY(X13)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AC13" s="6"/>
+      <c r="AC13" s="6" t="s">
+        <v>239</v>
+      </c>
       <c r="AD13" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
@@ -4259,15 +4259,15 @@
         <v>21554</v>
       </c>
       <c r="Y14" s="6">
-        <f>YEAR(X14)</f>
+        <f t="shared" si="0"/>
         <v>1959</v>
       </c>
       <c r="Z14" s="6">
-        <f>MONTH(X14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA14" s="6">
-        <f>DAY(X14)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB14" s="6" t="s">
@@ -4280,7 +4280,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -4354,15 +4354,15 @@
         <v>24787</v>
       </c>
       <c r="Y15" s="6">
-        <f>YEAR(X15)</f>
+        <f t="shared" si="0"/>
         <v>1967</v>
       </c>
       <c r="Z15" s="6">
-        <f>MONTH(X15)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="AA15" s="6">
-        <f>DAY(X15)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="AB15" s="6" t="s">
@@ -4375,7 +4375,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
@@ -4449,15 +4449,15 @@
         <v>24227</v>
       </c>
       <c r="Y16" s="6">
-        <f>YEAR(X16)</f>
+        <f t="shared" si="0"/>
         <v>1966</v>
       </c>
       <c r="Z16" s="6">
-        <f>MONTH(X16)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA16" s="6">
-        <f>DAY(X16)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="AB16" s="6" t="s">
@@ -4470,7 +4470,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -4544,15 +4544,15 @@
         <v>20575</v>
       </c>
       <c r="Y17" s="6">
-        <f>YEAR(X17)</f>
+        <f t="shared" si="0"/>
         <v>1956</v>
       </c>
       <c r="Z17" s="6">
-        <f>MONTH(X17)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA17" s="6">
-        <f>DAY(X17)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="AB17" s="6" t="s">
@@ -4565,7 +4565,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
@@ -4639,15 +4639,15 @@
         <v>33152</v>
       </c>
       <c r="Y18" s="6">
-        <f>YEAR(X18)</f>
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
       <c r="Z18" s="6">
-        <f>MONTH(X18)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AA18" s="6">
-        <f>DAY(X18)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AB18" s="6" t="s">
@@ -4660,7 +4660,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -4734,15 +4734,15 @@
         <v>33169</v>
       </c>
       <c r="Y19" s="6">
-        <f>YEAR(X19)</f>
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
       <c r="Z19" s="6">
-        <f>MONTH(X19)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AA19" s="6">
-        <f>DAY(X19)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="AB19" s="6" t="s">
@@ -4755,7 +4755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -4829,15 +4829,15 @@
         <v>32417</v>
       </c>
       <c r="Y20" s="6">
-        <f>YEAR(X20)</f>
+        <f t="shared" si="0"/>
         <v>1988</v>
       </c>
       <c r="Z20" s="6">
-        <f>MONTH(X20)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AA20" s="6">
-        <f>DAY(X20)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB20" s="6" t="s">
@@ -4850,7 +4850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
@@ -4924,15 +4924,15 @@
         <v>32349</v>
       </c>
       <c r="Y21" s="6">
-        <f>YEAR(X21)</f>
+        <f t="shared" si="0"/>
         <v>1988</v>
       </c>
       <c r="Z21" s="6">
-        <f>MONTH(X21)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AA21" s="6">
-        <f>DAY(X21)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="AB21" s="6" t="s">
@@ -4945,7 +4945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -5019,15 +5019,15 @@
         <v>24021</v>
       </c>
       <c r="Y22" s="1">
-        <f>YEAR(X22)</f>
+        <f t="shared" si="0"/>
         <v>1965</v>
       </c>
       <c r="Z22" s="1">
-        <f>MONTH(X22)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AA22" s="1">
-        <f>DAY(X22)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AB22" s="1" t="s">
@@ -5040,7 +5040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -5114,15 +5114,15 @@
         <v>25107</v>
       </c>
       <c r="Y23" s="1">
-        <f>YEAR(X23)</f>
+        <f t="shared" si="0"/>
         <v>1968</v>
       </c>
       <c r="Z23" s="1">
-        <f>MONTH(X23)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AA23" s="1">
-        <f>DAY(X23)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="AB23" s="1" t="s">
@@ -5135,7 +5135,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -5209,15 +5209,15 @@
         <v>23425</v>
       </c>
       <c r="Y24" s="1">
-        <f>YEAR(X24)</f>
+        <f t="shared" si="0"/>
         <v>1964</v>
       </c>
       <c r="Z24" s="1">
-        <f>MONTH(X24)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA24" s="1">
-        <f>DAY(X24)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="AB24" s="1" t="s">
@@ -5230,7 +5230,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -5304,15 +5304,15 @@
         <v>30812</v>
       </c>
       <c r="Y25" s="1">
-        <f>YEAR(X25)</f>
+        <f t="shared" si="0"/>
         <v>1984</v>
       </c>
       <c r="Z25" s="1">
-        <f>MONTH(X25)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AA25" s="1">
-        <f>DAY(X25)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB25" s="1" t="s">
@@ -5325,7 +5325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -5399,15 +5399,15 @@
         <v>26497</v>
       </c>
       <c r="Y26" s="1">
-        <f>YEAR(X26)</f>
+        <f t="shared" si="0"/>
         <v>1972</v>
       </c>
       <c r="Z26" s="1">
-        <f>MONTH(X26)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AA26" s="1">
-        <f>DAY(X26)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="AB26" s="1" t="s">
@@ -5420,7 +5420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -5494,15 +5494,15 @@
         <v>32186</v>
       </c>
       <c r="Y27" s="1">
-        <f>YEAR(X27)</f>
+        <f t="shared" si="0"/>
         <v>1988</v>
       </c>
       <c r="Z27" s="1">
-        <f>MONTH(X27)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA27" s="1">
-        <f>DAY(X27)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="AB27" s="1" t="s">
@@ -5515,7 +5515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -5589,15 +5589,15 @@
         <v>25180</v>
       </c>
       <c r="Y28" s="1">
-        <f>YEAR(X28)</f>
+        <f t="shared" si="0"/>
         <v>1968</v>
       </c>
       <c r="Z28" s="1">
-        <f>MONTH(X28)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AA28" s="1">
-        <f>DAY(X28)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AB28" s="1" t="s">
@@ -5610,7 +5610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -5684,15 +5684,15 @@
         <v>21075</v>
       </c>
       <c r="Y29" s="1">
-        <f>YEAR(X29)</f>
+        <f t="shared" si="0"/>
         <v>1957</v>
       </c>
       <c r="Z29" s="1">
-        <f>MONTH(X29)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AA29" s="1">
-        <f>DAY(X29)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="AB29" s="1" t="s">
@@ -5705,7 +5705,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -5779,15 +5779,15 @@
         <v>25154</v>
       </c>
       <c r="Y30" s="1">
-        <f>YEAR(X30)</f>
+        <f t="shared" si="0"/>
         <v>1968</v>
       </c>
       <c r="Z30" s="1">
-        <f>MONTH(X30)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="AA30" s="1">
-        <f>DAY(X30)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="AB30" s="1" t="s">
@@ -5800,7 +5800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -5874,15 +5874,15 @@
         <v>29196</v>
       </c>
       <c r="Y31" s="1">
-        <f>YEAR(X31)</f>
+        <f t="shared" si="0"/>
         <v>1979</v>
       </c>
       <c r="Z31" s="1">
-        <f>MONTH(X31)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AA31" s="1">
-        <f>DAY(X31)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AB31" s="1" t="s">
@@ -5895,7 +5895,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -5969,15 +5969,15 @@
         <v>23588</v>
       </c>
       <c r="Y32" s="1">
-        <f>YEAR(X32)</f>
+        <f t="shared" si="0"/>
         <v>1964</v>
       </c>
       <c r="Z32" s="1">
-        <f>MONTH(X32)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AA32" s="1">
-        <f>DAY(X32)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="AB32" s="1" t="s">
@@ -5990,7 +5990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -6064,15 +6064,15 @@
         <v>25281</v>
       </c>
       <c r="Y33" s="1">
-        <f>YEAR(X33)</f>
+        <f t="shared" si="0"/>
         <v>1969</v>
       </c>
       <c r="Z33" s="1">
-        <f>MONTH(X33)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA33" s="1">
-        <f>DAY(X33)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AB33" s="1" t="s">
@@ -6085,7 +6085,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -6159,15 +6159,15 @@
         <v>28858</v>
       </c>
       <c r="Y34" s="1">
-        <f>YEAR(X34)</f>
+        <f t="shared" si="0"/>
         <v>1979</v>
       </c>
       <c r="Z34" s="1">
-        <f>MONTH(X34)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA34" s="1">
-        <f>DAY(X34)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB34" s="1" t="s">
@@ -6180,7 +6180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -6254,15 +6254,15 @@
         <v>34460</v>
       </c>
       <c r="Y35" s="1">
-        <f>YEAR(X35)</f>
+        <f t="shared" si="0"/>
         <v>1994</v>
       </c>
       <c r="Z35" s="1">
-        <f>MONTH(X35)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AA35" s="1">
-        <f>DAY(X35)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AB35" s="1" t="s">
@@ -6275,7 +6275,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>30</v>
       </c>
@@ -6349,15 +6349,15 @@
         <v>23525</v>
       </c>
       <c r="Y36" s="6">
-        <f>YEAR(X36)</f>
+        <f t="shared" si="0"/>
         <v>1964</v>
       </c>
       <c r="Z36" s="6">
-        <f>MONTH(X36)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AA36" s="6">
-        <f>DAY(X36)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="AB36" s="6" t="s">
@@ -6370,7 +6370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>30</v>
       </c>
@@ -6444,15 +6444,15 @@
         <v>25793</v>
       </c>
       <c r="Y37" s="6">
-        <f>YEAR(X37)</f>
+        <f t="shared" si="0"/>
         <v>1970</v>
       </c>
       <c r="Z37" s="6">
-        <f>MONTH(X37)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AA37" s="6">
-        <f>DAY(X37)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="AB37" s="6" t="s">
@@ -6465,7 +6465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>30</v>
       </c>
@@ -6539,15 +6539,15 @@
         <v>25825</v>
       </c>
       <c r="Y38" s="6">
-        <f>YEAR(X38)</f>
+        <f t="shared" si="0"/>
         <v>1970</v>
       </c>
       <c r="Z38" s="6">
-        <f>MONTH(X38)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AA38" s="6">
-        <f>DAY(X38)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="AB38" s="6" t="s">
@@ -6560,7 +6560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>30</v>
       </c>
@@ -6634,15 +6634,15 @@
         <v>21551</v>
       </c>
       <c r="Y39" s="6">
-        <f>YEAR(X39)</f>
+        <f t="shared" si="0"/>
         <v>1959</v>
       </c>
       <c r="Z39" s="6">
-        <f>MONTH(X39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA39" s="6">
-        <f>DAY(X39)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB39" s="6" t="s">
@@ -6655,7 +6655,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>30</v>
       </c>
@@ -6729,15 +6729,15 @@
         <v>32512</v>
       </c>
       <c r="Y40" s="6">
-        <f>YEAR(X40)</f>
+        <f t="shared" si="0"/>
         <v>1989</v>
       </c>
       <c r="Z40" s="6">
-        <f>MONTH(X40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA40" s="6">
-        <f>DAY(X40)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB40" s="6" t="s">
@@ -6750,7 +6750,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>30</v>
       </c>
@@ -6824,15 +6824,15 @@
         <v>25040</v>
       </c>
       <c r="Y41" s="6">
-        <f>YEAR(X41)</f>
+        <f t="shared" si="0"/>
         <v>1968</v>
       </c>
       <c r="Z41" s="6">
-        <f>MONTH(X41)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AA41" s="6">
-        <f>DAY(X41)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="AB41" s="6" t="s">
@@ -6845,7 +6845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>30</v>
       </c>
@@ -6919,15 +6919,15 @@
         <v>34919</v>
       </c>
       <c r="Y42" s="6">
-        <f>YEAR(X42)</f>
+        <f t="shared" si="0"/>
         <v>1995</v>
       </c>
       <c r="Z42" s="6">
-        <f>MONTH(X42)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AA42" s="6">
-        <f>DAY(X42)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="AB42" s="6" t="s">
@@ -6940,7 +6940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>30</v>
       </c>
@@ -7014,15 +7014,15 @@
         <v>23284</v>
       </c>
       <c r="Y43" s="6">
-        <f>YEAR(X43)</f>
+        <f t="shared" si="0"/>
         <v>1963</v>
       </c>
       <c r="Z43" s="6">
-        <f>MONTH(X43)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AA43" s="6">
-        <f>DAY(X43)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="AB43" s="6" t="s">
@@ -7035,7 +7035,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>30</v>
       </c>
@@ -7109,15 +7109,15 @@
         <v>17396</v>
       </c>
       <c r="Y44" s="6">
-        <f>YEAR(X44)</f>
+        <f t="shared" si="0"/>
         <v>1947</v>
       </c>
       <c r="Z44" s="6">
-        <f>MONTH(X44)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AA44" s="6">
-        <f>DAY(X44)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="AB44" s="6" t="s">
@@ -7130,7 +7130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>30</v>
       </c>
@@ -7204,15 +7204,15 @@
         <v>23094</v>
       </c>
       <c r="Y45" s="6">
-        <f>YEAR(X45)</f>
+        <f t="shared" si="0"/>
         <v>1963</v>
       </c>
       <c r="Z45" s="6">
-        <f>MONTH(X45)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA45" s="6">
-        <f>DAY(X45)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="AB45" s="6" t="s">
@@ -7225,7 +7225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>30</v>
       </c>
@@ -7299,15 +7299,15 @@
         <v>21972</v>
       </c>
       <c r="Y46" s="6">
-        <f>YEAR(X46)</f>
+        <f t="shared" si="0"/>
         <v>1960</v>
       </c>
       <c r="Z46" s="6">
-        <f>MONTH(X46)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA46" s="6">
-        <f>DAY(X46)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="AB46" s="6" t="s">
@@ -7320,7 +7320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>30</v>
       </c>
@@ -7394,15 +7394,15 @@
         <v>29132</v>
       </c>
       <c r="Y47" s="6">
-        <f>YEAR(X47)</f>
+        <f t="shared" si="0"/>
         <v>1979</v>
       </c>
       <c r="Z47" s="6">
-        <f>MONTH(X47)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AA47" s="6">
-        <f>DAY(X47)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB47" s="6" t="s">
@@ -7415,7 +7415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>30</v>
       </c>
@@ -7489,15 +7489,15 @@
         <v>29404</v>
       </c>
       <c r="Y48" s="6">
-        <f>YEAR(X48)</f>
+        <f t="shared" si="0"/>
         <v>1980</v>
       </c>
       <c r="Z48" s="6">
-        <f>MONTH(X48)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AA48" s="6">
-        <f>DAY(X48)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB48" s="6" t="s">
@@ -7510,7 +7510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>30</v>
       </c>
@@ -7584,15 +7584,15 @@
         <v>25668</v>
       </c>
       <c r="Y49" s="6">
-        <f>YEAR(X49)</f>
+        <f t="shared" si="0"/>
         <v>1970</v>
       </c>
       <c r="Z49" s="6">
-        <f>MONTH(X49)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA49" s="6">
-        <f>DAY(X49)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB49" s="6" t="s">
@@ -7605,7 +7605,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>30</v>
       </c>
@@ -7679,15 +7679,15 @@
         <v>32935</v>
       </c>
       <c r="Y50" s="6">
-        <f>YEAR(X50)</f>
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
       <c r="Z50" s="6">
-        <f>MONTH(X50)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA50" s="6">
-        <f>DAY(X50)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB50" s="6" t="s">
@@ -7700,7 +7700,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>30</v>
       </c>
@@ -7774,15 +7774,15 @@
         <v>27143</v>
       </c>
       <c r="Y51" s="1">
-        <f>YEAR(X51)</f>
+        <f t="shared" si="0"/>
         <v>1974</v>
       </c>
       <c r="Z51" s="1">
-        <f>MONTH(X51)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA51" s="1">
-        <f>DAY(X51)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="AB51" s="1" t="s">
@@ -7795,7 +7795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>30</v>
       </c>
@@ -7869,15 +7869,15 @@
         <v>25269</v>
       </c>
       <c r="Y52" s="1">
-        <f>YEAR(X52)</f>
+        <f t="shared" si="0"/>
         <v>1969</v>
       </c>
       <c r="Z52" s="1">
-        <f>MONTH(X52)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA52" s="1">
-        <f>DAY(X52)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AB52" s="1" t="s">
@@ -7890,7 +7890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
@@ -7964,15 +7964,15 @@
         <v>26568</v>
       </c>
       <c r="Y53" s="1">
-        <f>YEAR(X53)</f>
+        <f t="shared" si="0"/>
         <v>1972</v>
       </c>
       <c r="Z53" s="1">
-        <f>MONTH(X53)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AA53" s="1">
-        <f>DAY(X53)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="AB53" s="1" t="s">
@@ -7985,7 +7985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
@@ -8059,15 +8059,15 @@
         <v>32273</v>
       </c>
       <c r="Y54" s="1">
-        <f>YEAR(X54)</f>
+        <f t="shared" si="0"/>
         <v>1988</v>
       </c>
       <c r="Z54" s="1">
-        <f>MONTH(X54)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AA54" s="1">
-        <f>DAY(X54)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB54" s="1" t="s">
@@ -8080,7 +8080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>30</v>
       </c>
@@ -8154,15 +8154,15 @@
         <v>26295</v>
       </c>
       <c r="Y55" s="1">
-        <f>YEAR(X55)</f>
+        <f t="shared" si="0"/>
         <v>1971</v>
       </c>
       <c r="Z55" s="1">
-        <f>MONTH(X55)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AA55" s="1">
-        <f>DAY(X55)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="AB55" s="1" t="s">
@@ -8175,7 +8175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>30</v>
       </c>
@@ -8249,15 +8249,15 @@
         <v>33299</v>
       </c>
       <c r="Y56" s="1">
-        <f>YEAR(X56)</f>
+        <f t="shared" si="0"/>
         <v>1991</v>
       </c>
       <c r="Z56" s="1">
-        <f>MONTH(X56)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AA56" s="1">
-        <f>DAY(X56)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB56" s="1" t="s">
@@ -8270,7 +8270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>30</v>
       </c>
@@ -8344,15 +8344,15 @@
         <v>26327</v>
       </c>
       <c r="Y57" s="1">
-        <f>YEAR(X57)</f>
+        <f t="shared" si="0"/>
         <v>1972</v>
       </c>
       <c r="Z57" s="1">
-        <f>MONTH(X57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA57" s="1">
-        <f>DAY(X57)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="AB57" s="1" t="s">
@@ -8365,7 +8365,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>30</v>
       </c>
@@ -8439,15 +8439,15 @@
         <v>24810</v>
       </c>
       <c r="Y58" s="1">
-        <f>YEAR(X58)</f>
+        <f t="shared" si="0"/>
         <v>1967</v>
       </c>
       <c r="Z58" s="1">
-        <f>MONTH(X58)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AA58" s="1">
-        <f>DAY(X58)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB58" s="1" t="s">
@@ -8460,7 +8460,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>30</v>
       </c>
@@ -8534,15 +8534,15 @@
         <v>25970</v>
       </c>
       <c r="Y59" s="1">
-        <f>YEAR(X59)</f>
+        <f t="shared" si="0"/>
         <v>1971</v>
       </c>
       <c r="Z59" s="1">
-        <f>MONTH(X59)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA59" s="1">
-        <f>DAY(X59)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AB59" s="1" t="s">
@@ -8555,7 +8555,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
@@ -8629,15 +8629,15 @@
         <v>27021</v>
       </c>
       <c r="Y60" s="1">
-        <f>YEAR(X60)</f>
+        <f t="shared" si="0"/>
         <v>1973</v>
       </c>
       <c r="Z60" s="1">
-        <f>MONTH(X60)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AA60" s="1">
-        <f>DAY(X60)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="AB60" s="1" t="s">
@@ -8650,7 +8650,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>30</v>
       </c>
@@ -8724,15 +8724,15 @@
         <v>30846</v>
       </c>
       <c r="Y61" s="1">
-        <f>YEAR(X61)</f>
+        <f t="shared" si="0"/>
         <v>1984</v>
       </c>
       <c r="Z61" s="1">
-        <f>MONTH(X61)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AA61" s="1">
-        <f>DAY(X61)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="AB61" s="1" t="s">
@@ -8745,7 +8745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>30</v>
       </c>
@@ -8819,15 +8819,15 @@
         <v>32162</v>
       </c>
       <c r="Y62" s="6">
-        <f>YEAR(X62)</f>
+        <f t="shared" si="0"/>
         <v>1988</v>
       </c>
       <c r="Z62" s="6">
-        <f>MONTH(X62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA62" s="6">
-        <f>DAY(X62)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AB62" s="6" t="s">
@@ -8840,7 +8840,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>30</v>
       </c>
@@ -8914,15 +8914,15 @@
         <v>25056</v>
       </c>
       <c r="Y63" s="6">
-        <f>YEAR(X63)</f>
+        <f t="shared" si="0"/>
         <v>1968</v>
       </c>
       <c r="Z63" s="6">
-        <f>MONTH(X63)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AA63" s="6">
-        <f>DAY(X63)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AB63" s="6" t="s">
@@ -8935,7 +8935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>30</v>
       </c>
@@ -9009,15 +9009,15 @@
         <v>24218</v>
       </c>
       <c r="Y64" s="6">
-        <f>YEAR(X64)</f>
+        <f t="shared" si="0"/>
         <v>1966</v>
       </c>
       <c r="Z64" s="6">
-        <f>MONTH(X64)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA64" s="6">
-        <f>DAY(X64)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="AB64" s="6" t="s">
@@ -9028,7 +9028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>30</v>
       </c>
@@ -9102,15 +9102,15 @@
         <v>25964</v>
       </c>
       <c r="Y65" s="6">
-        <f>YEAR(X65)</f>
+        <f t="shared" si="0"/>
         <v>1971</v>
       </c>
       <c r="Z65" s="6">
-        <f>MONTH(X65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA65" s="6">
-        <f>DAY(X65)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="AB65" s="6" t="s">
@@ -9121,7 +9121,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>30</v>
       </c>
@@ -9195,15 +9195,15 @@
         <v>29146</v>
       </c>
       <c r="Y66" s="6">
-        <f>YEAR(X66)</f>
+        <f t="shared" si="0"/>
         <v>1979</v>
       </c>
       <c r="Z66" s="6">
-        <f>MONTH(X66)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AA66" s="6">
-        <f>DAY(X66)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="AB66" s="6" t="s">
@@ -9216,7 +9216,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>30</v>
       </c>
@@ -9290,15 +9290,15 @@
         <v>23443</v>
       </c>
       <c r="Y67" s="6">
-        <f>YEAR(X67)</f>
+        <f t="shared" ref="Y67:Y130" si="3">YEAR(X67)</f>
         <v>1964</v>
       </c>
       <c r="Z67" s="6">
-        <f>MONTH(X67)</f>
+        <f t="shared" ref="Z67:Z130" si="4">MONTH(X67)</f>
         <v>3</v>
       </c>
       <c r="AA67" s="6">
-        <f>DAY(X67)</f>
+        <f t="shared" ref="AA67:AA130" si="5">DAY(X67)</f>
         <v>7</v>
       </c>
       <c r="AB67" s="6" t="s">
@@ -9311,7 +9311,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
@@ -9385,15 +9385,15 @@
         <v>26172</v>
       </c>
       <c r="Y68" s="6">
-        <f>YEAR(X68)</f>
+        <f t="shared" si="3"/>
         <v>1971</v>
       </c>
       <c r="Z68" s="6">
-        <f>MONTH(X68)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AA68" s="6">
-        <f>DAY(X68)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="AB68" s="6" t="s">
@@ -9406,7 +9406,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>30</v>
       </c>
@@ -9480,15 +9480,15 @@
         <v>24859</v>
       </c>
       <c r="Y69" s="6">
-        <f>YEAR(X69)</f>
+        <f t="shared" si="3"/>
         <v>1968</v>
       </c>
       <c r="Z69" s="6">
-        <f>MONTH(X69)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AA69" s="6">
-        <f>DAY(X69)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="AB69" s="6" t="s">
@@ -9499,7 +9499,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>30</v>
       </c>
@@ -9573,15 +9573,15 @@
         <v>22960</v>
       </c>
       <c r="Y70" s="1">
-        <f>YEAR(X70)</f>
+        <f t="shared" si="3"/>
         <v>1962</v>
       </c>
       <c r="Z70" s="1">
-        <f>MONTH(X70)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="AA70" s="1">
-        <f>DAY(X70)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AB70" s="1" t="s">
@@ -9594,7 +9594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>30</v>
       </c>
@@ -9668,15 +9668,15 @@
         <v>27335</v>
       </c>
       <c r="Y71" s="1">
-        <f>YEAR(X71)</f>
+        <f t="shared" si="3"/>
         <v>1974</v>
       </c>
       <c r="Z71" s="1">
-        <f>MONTH(X71)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="AA71" s="1">
-        <f>DAY(X71)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB71" s="1" t="s">
@@ -9689,7 +9689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>30</v>
       </c>
@@ -9763,15 +9763,15 @@
         <v>29707</v>
       </c>
       <c r="Y72" s="1">
-        <f>YEAR(X72)</f>
+        <f t="shared" si="3"/>
         <v>1981</v>
       </c>
       <c r="Z72" s="1">
-        <f>MONTH(X72)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA72" s="1">
-        <f>DAY(X72)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB72" s="1" t="s">
@@ -9784,7 +9784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>30</v>
       </c>
@@ -9858,15 +9858,15 @@
         <v>31174</v>
       </c>
       <c r="Y73" s="1">
-        <f>YEAR(X73)</f>
+        <f t="shared" si="3"/>
         <v>1985</v>
       </c>
       <c r="Z73" s="1">
-        <f>MONTH(X73)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA73" s="1">
-        <f>DAY(X73)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="AB73" s="1" t="s">
@@ -9879,7 +9879,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>30</v>
       </c>
@@ -9953,15 +9953,15 @@
         <v>34113</v>
       </c>
       <c r="Y74" s="1">
-        <f>YEAR(X74)</f>
+        <f t="shared" si="3"/>
         <v>1993</v>
       </c>
       <c r="Z74" s="1">
-        <f>MONTH(X74)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA74" s="1">
-        <f>DAY(X74)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="AB74" s="1" t="s">
@@ -9974,7 +9974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>30</v>
       </c>
@@ -10048,15 +10048,15 @@
         <v>24499</v>
       </c>
       <c r="Y75" s="1">
-        <f>YEAR(X75)</f>
+        <f t="shared" si="3"/>
         <v>1967</v>
       </c>
       <c r="Z75" s="1">
-        <f>MONTH(X75)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AA75" s="1">
-        <f>DAY(X75)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="AB75" s="1" t="s">
@@ -10067,7 +10067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>30</v>
       </c>
@@ -10141,15 +10141,15 @@
         <v>27633</v>
       </c>
       <c r="Y76" s="1">
-        <f>YEAR(X76)</f>
+        <f t="shared" si="3"/>
         <v>1975</v>
       </c>
       <c r="Z76" s="1">
-        <f>MONTH(X76)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AA76" s="1">
-        <f>DAY(X76)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="AB76" s="1" t="s">
@@ -10162,7 +10162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>30</v>
       </c>
@@ -10236,15 +10236,15 @@
         <v>31280</v>
       </c>
       <c r="Y77" s="1">
-        <f>YEAR(X77)</f>
+        <f t="shared" si="3"/>
         <v>1985</v>
       </c>
       <c r="Z77" s="1">
-        <f>MONTH(X77)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AA77" s="1">
-        <f>DAY(X77)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="AB77" s="1" t="s">
@@ -10257,7 +10257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>30</v>
       </c>
@@ -10331,15 +10331,15 @@
         <v>30327</v>
       </c>
       <c r="Y78" s="1">
-        <f>YEAR(X78)</f>
+        <f t="shared" si="3"/>
         <v>1983</v>
       </c>
       <c r="Z78" s="1">
-        <f>MONTH(X78)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AA78" s="1">
-        <f>DAY(X78)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="AB78" s="1" t="s">
@@ -10352,7 +10352,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>30</v>
       </c>
@@ -10426,15 +10426,15 @@
         <v>29364</v>
       </c>
       <c r="Y79" s="1">
-        <f>YEAR(X79)</f>
+        <f t="shared" si="3"/>
         <v>1980</v>
       </c>
       <c r="Z79" s="1">
-        <f>MONTH(X79)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA79" s="1">
-        <f>DAY(X79)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="AB79" s="1" t="s">
@@ -10447,7 +10447,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>30</v>
       </c>
@@ -10521,15 +10521,15 @@
         <v>26836</v>
       </c>
       <c r="Y80" s="1">
-        <f>YEAR(X80)</f>
+        <f t="shared" si="3"/>
         <v>1973</v>
       </c>
       <c r="Z80" s="1">
-        <f>MONTH(X80)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AA80" s="1">
-        <f>DAY(X80)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="AB80" s="1" t="s">
@@ -10542,7 +10542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>30</v>
       </c>
@@ -10616,15 +10616,15 @@
         <v>31585</v>
       </c>
       <c r="Y81" s="1">
-        <f>YEAR(X81)</f>
+        <f t="shared" si="3"/>
         <v>1986</v>
       </c>
       <c r="Z81" s="1">
-        <f>MONTH(X81)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AA81" s="1">
-        <f>DAY(X81)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="AB81" s="1" t="s">
@@ -10637,7 +10637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>30</v>
       </c>
@@ -10711,15 +10711,15 @@
         <v>32330</v>
       </c>
       <c r="Y82" s="1">
-        <f>YEAR(X82)</f>
+        <f t="shared" si="3"/>
         <v>1988</v>
       </c>
       <c r="Z82" s="1">
-        <f>MONTH(X82)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AA82" s="1">
-        <f>DAY(X82)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AB82" s="1" t="s">
@@ -10732,7 +10732,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>30</v>
       </c>
@@ -10806,15 +10806,15 @@
         <v>25158</v>
       </c>
       <c r="Y83" s="1">
-        <f>YEAR(X83)</f>
+        <f t="shared" si="3"/>
         <v>1968</v>
       </c>
       <c r="Z83" s="1">
-        <f>MONTH(X83)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="AA83" s="1">
-        <f>DAY(X83)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="AB83" s="1" t="s">
@@ -10827,7 +10827,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>30</v>
       </c>
@@ -10901,15 +10901,15 @@
         <v>29490</v>
       </c>
       <c r="Y84" s="1">
-        <f>YEAR(X84)</f>
+        <f t="shared" si="3"/>
         <v>1980</v>
       </c>
       <c r="Z84" s="1">
-        <f>MONTH(X84)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AA84" s="1">
-        <f>DAY(X84)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="AB84" s="1" t="s">
@@ -10922,7 +10922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>30</v>
       </c>
@@ -10996,15 +10996,15 @@
         <v>24616</v>
       </c>
       <c r="Y85" s="6">
-        <f>YEAR(X85)</f>
+        <f t="shared" si="3"/>
         <v>1967</v>
       </c>
       <c r="Z85" s="6">
-        <f>MONTH(X85)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA85" s="6">
-        <f>DAY(X85)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="AB85" s="6" t="s">
@@ -11017,7 +11017,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>30</v>
       </c>
@@ -11091,15 +11091,15 @@
         <v>27128</v>
       </c>
       <c r="Y86" s="6">
-        <f>YEAR(X86)</f>
+        <f t="shared" si="3"/>
         <v>1974</v>
       </c>
       <c r="Z86" s="6">
-        <f>MONTH(X86)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AA86" s="6">
-        <f>DAY(X86)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AB86" s="6" t="s">
@@ -11112,7 +11112,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>30</v>
       </c>
@@ -11186,15 +11186,15 @@
         <v>24079</v>
       </c>
       <c r="Y87" s="6">
-        <f>YEAR(X87)</f>
+        <f t="shared" si="3"/>
         <v>1965</v>
       </c>
       <c r="Z87" s="6">
-        <f>MONTH(X87)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="AA87" s="6">
-        <f>DAY(X87)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AB87" s="6" t="s">
@@ -11205,7 +11205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>30</v>
       </c>
@@ -11279,15 +11279,15 @@
         <v>23622</v>
       </c>
       <c r="Y88" s="6">
-        <f>YEAR(X88)</f>
+        <f t="shared" si="3"/>
         <v>1964</v>
       </c>
       <c r="Z88" s="6">
-        <f>MONTH(X88)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AA88" s="6">
-        <f>DAY(X88)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB88" s="6" t="s">
@@ -11300,7 +11300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>30</v>
       </c>
@@ -11374,15 +11374,15 @@
         <v>28418</v>
       </c>
       <c r="Y89" s="6">
-        <f>YEAR(X89)</f>
+        <f t="shared" si="3"/>
         <v>1977</v>
       </c>
       <c r="Z89" s="6">
-        <f>MONTH(X89)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AA89" s="6">
-        <f>DAY(X89)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="AB89" s="6" t="s">
@@ -11395,7 +11395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>30</v>
       </c>
@@ -11469,15 +11469,15 @@
         <v>31446</v>
       </c>
       <c r="Y90" s="6">
-        <f>YEAR(X90)</f>
+        <f t="shared" si="3"/>
         <v>1986</v>
       </c>
       <c r="Z90" s="6">
-        <f>MONTH(X90)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AA90" s="6">
-        <f>DAY(X90)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AB90" s="6" t="s">
@@ -11490,7 +11490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>30</v>
       </c>
@@ -11564,15 +11564,15 @@
         <v>33785</v>
       </c>
       <c r="Y91" s="6">
-        <f>YEAR(X91)</f>
+        <f t="shared" si="3"/>
         <v>1992</v>
       </c>
       <c r="Z91" s="6">
-        <f>MONTH(X91)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AA91" s="6">
-        <f>DAY(X91)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AB91" s="6" t="s">
@@ -11585,7 +11585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>30</v>
       </c>
@@ -11659,15 +11659,15 @@
         <v>32067</v>
       </c>
       <c r="Y92" s="6">
-        <f>YEAR(X92)</f>
+        <f t="shared" si="3"/>
         <v>1987</v>
       </c>
       <c r="Z92" s="6">
-        <f>MONTH(X92)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AA92" s="6">
-        <f>DAY(X92)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="AB92" s="6" t="s">
@@ -11678,7 +11678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>30</v>
       </c>
@@ -11752,15 +11752,15 @@
         <v>28291</v>
       </c>
       <c r="Y93" s="6">
-        <f>YEAR(X93)</f>
+        <f t="shared" si="3"/>
         <v>1977</v>
       </c>
       <c r="Z93" s="6">
-        <f>MONTH(X93)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AA93" s="6">
-        <f>DAY(X93)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="AB93" s="6" t="s">
@@ -11773,7 +11773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>30</v>
       </c>
@@ -11847,15 +11847,15 @@
         <v>26643</v>
       </c>
       <c r="Y94" s="6">
-        <f>YEAR(X94)</f>
+        <f t="shared" si="3"/>
         <v>1972</v>
       </c>
       <c r="Z94" s="6">
-        <f>MONTH(X94)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="AA94" s="6">
-        <f>DAY(X94)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AB94" s="6" t="s">
@@ -11868,7 +11868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>30</v>
       </c>
@@ -11942,15 +11942,15 @@
         <v>30049</v>
       </c>
       <c r="Y95" s="6">
-        <f>YEAR(X95)</f>
+        <f t="shared" si="3"/>
         <v>1982</v>
       </c>
       <c r="Z95" s="6">
-        <f>MONTH(X95)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AA95" s="6">
-        <f>DAY(X95)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AB95" s="6" t="s">
@@ -11963,7 +11963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>30</v>
       </c>
@@ -12037,15 +12037,15 @@
         <v>29414</v>
       </c>
       <c r="Y96" s="6">
-        <f>YEAR(X96)</f>
+        <f t="shared" si="3"/>
         <v>1980</v>
       </c>
       <c r="Z96" s="6">
-        <f>MONTH(X96)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AA96" s="6">
-        <f>DAY(X96)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="AB96" s="6" t="s">
@@ -12058,7 +12058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>30</v>
       </c>
@@ -12132,15 +12132,15 @@
         <v>28356</v>
       </c>
       <c r="Y97" s="6">
-        <f>YEAR(X97)</f>
+        <f t="shared" si="3"/>
         <v>1977</v>
       </c>
       <c r="Z97" s="6">
-        <f>MONTH(X97)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AA97" s="6">
-        <f>DAY(X97)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="AB97" s="6" t="s">
@@ -12153,7 +12153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>30</v>
       </c>
@@ -12227,15 +12227,15 @@
         <v>22280</v>
       </c>
       <c r="Y98" s="1">
-        <f>YEAR(X98)</f>
+        <f t="shared" si="3"/>
         <v>1960</v>
       </c>
       <c r="Z98" s="1">
-        <f>MONTH(X98)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="AA98" s="1">
-        <f>DAY(X98)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="AB98" s="1" t="s">
@@ -12248,7 +12248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>30</v>
       </c>
@@ -12322,15 +12322,15 @@
         <v>32393</v>
       </c>
       <c r="Y99" s="1">
-        <f>YEAR(X99)</f>
+        <f t="shared" si="3"/>
         <v>1988</v>
       </c>
       <c r="Z99" s="1">
-        <f>MONTH(X99)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AA99" s="1">
-        <f>DAY(X99)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="AB99" s="1" t="s">
@@ -12343,7 +12343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>30</v>
       </c>
@@ -12417,15 +12417,15 @@
         <v>30908</v>
       </c>
       <c r="Y100" s="1">
-        <f>YEAR(X100)</f>
+        <f t="shared" si="3"/>
         <v>1984</v>
       </c>
       <c r="Z100" s="1">
-        <f>MONTH(X100)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AA100" s="1">
-        <f>DAY(X100)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="AB100" s="1" t="s">
@@ -12438,7 +12438,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>30</v>
       </c>
@@ -12512,15 +12512,15 @@
         <v>23917</v>
       </c>
       <c r="Y101" s="1">
-        <f>YEAR(X101)</f>
+        <f t="shared" si="3"/>
         <v>1965</v>
       </c>
       <c r="Z101" s="1">
-        <f>MONTH(X101)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AA101" s="1">
-        <f>DAY(X101)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="AB101" s="1" t="s">
@@ -12533,7 +12533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>30</v>
       </c>
@@ -12607,15 +12607,15 @@
         <v>26342</v>
       </c>
       <c r="Y102" s="1">
-        <f>YEAR(X102)</f>
+        <f t="shared" si="3"/>
         <v>1972</v>
       </c>
       <c r="Z102" s="1">
-        <f>MONTH(X102)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AA102" s="1">
-        <f>DAY(X102)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="AB102" s="1" t="s">
@@ -12628,7 +12628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>30</v>
       </c>
@@ -12702,15 +12702,15 @@
         <v>27078</v>
       </c>
       <c r="Y103" s="1">
-        <f>YEAR(X103)</f>
+        <f t="shared" si="3"/>
         <v>1974</v>
       </c>
       <c r="Z103" s="1">
-        <f>MONTH(X103)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AA103" s="1">
-        <f>DAY(X103)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="AB103" s="1" t="s">
@@ -12723,7 +12723,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>30</v>
       </c>
@@ -12797,15 +12797,15 @@
         <v>21303</v>
       </c>
       <c r="Y104" s="1">
-        <f>YEAR(X104)</f>
+        <f t="shared" si="3"/>
         <v>1958</v>
       </c>
       <c r="Z104" s="1">
-        <f>MONTH(X104)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AA104" s="1">
-        <f>DAY(X104)</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="AB104" s="1" t="s">
@@ -12818,7 +12818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>30</v>
       </c>
@@ -12892,15 +12892,15 @@
         <v>23238</v>
       </c>
       <c r="Y105" s="1">
-        <f>YEAR(X105)</f>
+        <f t="shared" si="3"/>
         <v>1963</v>
       </c>
       <c r="Z105" s="1">
-        <f>MONTH(X105)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AA105" s="1">
-        <f>DAY(X105)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="AB105" s="1" t="s">
@@ -12913,7 +12913,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>30</v>
       </c>
@@ -12987,15 +12987,15 @@
         <v>32794</v>
       </c>
       <c r="Y106" s="1">
-        <f>YEAR(X106)</f>
+        <f t="shared" si="3"/>
         <v>1989</v>
       </c>
       <c r="Z106" s="1">
-        <f>MONTH(X106)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AA106" s="1">
-        <f>DAY(X106)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="AB106" s="1" t="s">
@@ -13008,7 +13008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>30</v>
       </c>
@@ -13082,15 +13082,15 @@
         <v>27103</v>
       </c>
       <c r="Y107" s="1">
-        <f>YEAR(X107)</f>
+        <f t="shared" si="3"/>
         <v>1974</v>
       </c>
       <c r="Z107" s="1">
-        <f>MONTH(X107)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AA107" s="1">
-        <f>DAY(X107)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="AB107" s="1" t="s">
@@ -13103,7 +13103,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>30</v>
       </c>
@@ -13177,15 +13177,15 @@
         <v>28550</v>
       </c>
       <c r="Y108" s="1">
-        <f>YEAR(X108)</f>
+        <f t="shared" si="3"/>
         <v>1978</v>
       </c>
       <c r="Z108" s="1">
-        <f>MONTH(X108)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AA108" s="1">
-        <f>DAY(X108)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB108" s="1" t="s">
@@ -13196,7 +13196,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>30</v>
       </c>
@@ -13270,15 +13270,15 @@
         <v>25974</v>
       </c>
       <c r="Y109" s="1">
-        <f>YEAR(X109)</f>
+        <f t="shared" si="3"/>
         <v>1971</v>
       </c>
       <c r="Z109" s="1">
-        <f>MONTH(X109)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AA109" s="1">
-        <f>DAY(X109)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AB109" s="1" t="s">
@@ -13291,7 +13291,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>30</v>
       </c>
@@ -13365,15 +13365,15 @@
         <v>29985</v>
       </c>
       <c r="Y110" s="1">
-        <f>YEAR(X110)</f>
+        <f t="shared" si="3"/>
         <v>1982</v>
       </c>
       <c r="Z110" s="1">
-        <f>MONTH(X110)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AA110" s="1">
-        <f>DAY(X110)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AB110" s="1" t="s">
@@ -13386,7 +13386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>30</v>
       </c>
@@ -13460,15 +13460,15 @@
         <v>21956</v>
       </c>
       <c r="Y111" s="6">
-        <f>YEAR(X111)</f>
+        <f t="shared" si="3"/>
         <v>1960</v>
       </c>
       <c r="Z111" s="6">
-        <f>MONTH(X111)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AA111" s="6">
-        <f>DAY(X111)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AB111" s="6" t="s">
@@ -13479,7 +13479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>30</v>
       </c>
@@ -13553,15 +13553,15 @@
         <v>32464</v>
       </c>
       <c r="Y112" s="6">
-        <f>YEAR(X112)</f>
+        <f t="shared" si="3"/>
         <v>1988</v>
       </c>
       <c r="Z112" s="6">
-        <f>MONTH(X112)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="AA112" s="6">
-        <f>DAY(X112)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="AB112" s="6" t="s">
@@ -13574,7 +13574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>30</v>
       </c>
@@ -13648,15 +13648,15 @@
         <v>23262</v>
       </c>
       <c r="Y113" s="6">
-        <f>YEAR(X113)</f>
+        <f t="shared" si="3"/>
         <v>1963</v>
       </c>
       <c r="Z113" s="6">
-        <f>MONTH(X113)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AA113" s="6">
-        <f>DAY(X113)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AB113" s="6" t="s">
@@ -13669,7 +13669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>30</v>
       </c>
@@ -13743,15 +13743,15 @@
         <v>28314</v>
       </c>
       <c r="Y114" s="6">
-        <f>YEAR(X114)</f>
+        <f t="shared" si="3"/>
         <v>1977</v>
       </c>
       <c r="Z114" s="6">
-        <f>MONTH(X114)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AA114" s="6">
-        <f>DAY(X114)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AB114" s="6" t="s">
@@ -13764,7 +13764,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>30</v>
       </c>
@@ -13838,15 +13838,15 @@
         <v>33246</v>
       </c>
       <c r="Y115" s="6">
-        <f>YEAR(X115)</f>
+        <f t="shared" si="3"/>
         <v>1991</v>
       </c>
       <c r="Z115" s="6">
-        <f>MONTH(X115)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AA115" s="6">
-        <f>DAY(X115)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AB115" s="6" t="s">
@@ -13859,7 +13859,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>30</v>
       </c>
@@ -13933,15 +13933,15 @@
         <v>33592</v>
       </c>
       <c r="Y116" s="6">
-        <f>YEAR(X116)</f>
+        <f t="shared" si="3"/>
         <v>1991</v>
       </c>
       <c r="Z116" s="6">
-        <f>MONTH(X116)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="AA116" s="6">
-        <f>DAY(X116)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="AB116" s="6" t="s">
@@ -13954,7 +13954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>30</v>
       </c>
@@ -14028,15 +14028,15 @@
         <v>32608</v>
       </c>
       <c r="Y117" s="6">
-        <f>YEAR(X117)</f>
+        <f t="shared" si="3"/>
         <v>1989</v>
       </c>
       <c r="Z117" s="6">
-        <f>MONTH(X117)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AA117" s="6">
-        <f>DAY(X117)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AB117" s="6" t="s">
@@ -14049,7 +14049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>30</v>
       </c>
@@ -14123,15 +14123,15 @@
         <v>28415</v>
       </c>
       <c r="Y118" s="6">
-        <f>YEAR(X118)</f>
+        <f t="shared" si="3"/>
         <v>1977</v>
       </c>
       <c r="Z118" s="6">
-        <f>MONTH(X118)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AA118" s="6">
-        <f>DAY(X118)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="AB118" s="6" t="s">
@@ -14144,7 +14144,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>30</v>
       </c>
@@ -14218,15 +14218,15 @@
         <v>32754</v>
       </c>
       <c r="Y119" s="6">
-        <f>YEAR(X119)</f>
+        <f t="shared" si="3"/>
         <v>1989</v>
       </c>
       <c r="Z119" s="6">
-        <f>MONTH(X119)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AA119" s="6">
-        <f>DAY(X119)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AB119" s="6" t="s">
@@ -14239,7 +14239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>30</v>
       </c>
@@ -14313,15 +14313,15 @@
         <v>29210</v>
       </c>
       <c r="Y120" s="6">
-        <f>YEAR(X120)</f>
+        <f t="shared" si="3"/>
         <v>1979</v>
       </c>
       <c r="Z120" s="6">
-        <f>MONTH(X120)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="AA120" s="6">
-        <f>DAY(X120)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="AB120" s="6" t="s">
@@ -14334,7 +14334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>30</v>
       </c>
@@ -14408,15 +14408,15 @@
         <v>24323</v>
       </c>
       <c r="Y121" s="6">
-        <f>YEAR(X121)</f>
+        <f t="shared" si="3"/>
         <v>1966</v>
       </c>
       <c r="Z121" s="6">
-        <f>MONTH(X121)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AA121" s="6">
-        <f>DAY(X121)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AB121" s="6" t="s">
@@ -14427,7 +14427,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>30</v>
       </c>
@@ -14501,15 +14501,15 @@
         <v>26294</v>
       </c>
       <c r="Y122" s="6">
-        <f>YEAR(X122)</f>
+        <f t="shared" si="3"/>
         <v>1971</v>
       </c>
       <c r="Z122" s="6">
-        <f>MONTH(X122)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="AA122" s="6">
-        <f>DAY(X122)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="AB122" s="6" t="s">
@@ -14520,7 +14520,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>30</v>
       </c>
@@ -14594,15 +14594,15 @@
         <v>33555</v>
       </c>
       <c r="Y123" s="6">
-        <f>YEAR(X123)</f>
+        <f t="shared" si="3"/>
         <v>1991</v>
       </c>
       <c r="Z123" s="6">
-        <f>MONTH(X123)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="AA123" s="6">
-        <f>DAY(X123)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="AB123" s="6" t="s">
@@ -14615,7 +14615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>30</v>
       </c>
@@ -14689,15 +14689,15 @@
         <v>25855</v>
       </c>
       <c r="Y124" s="6">
-        <f>YEAR(X124)</f>
+        <f t="shared" si="3"/>
         <v>1970</v>
       </c>
       <c r="Z124" s="6">
-        <f>MONTH(X124)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AA124" s="6">
-        <f>DAY(X124)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="AB124" s="6" t="s">
@@ -14710,7 +14710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>30</v>
       </c>
@@ -14784,15 +14784,15 @@
         <v>27236</v>
       </c>
       <c r="Y125" s="6">
-        <f>YEAR(X125)</f>
+        <f t="shared" si="3"/>
         <v>1974</v>
       </c>
       <c r="Z125" s="6">
-        <f>MONTH(X125)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AA125" s="6">
-        <f>DAY(X125)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="AB125" s="6" t="s">
@@ -14805,7 +14805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>30</v>
       </c>
@@ -14879,15 +14879,15 @@
         <v>26042</v>
       </c>
       <c r="Y126" s="1">
-        <f>YEAR(X126)</f>
+        <f t="shared" si="3"/>
         <v>1971</v>
       </c>
       <c r="Z126" s="1">
-        <f>MONTH(X126)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AA126" s="1">
-        <f>DAY(X126)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="AB126" s="1" t="s">
@@ -14898,7 +14898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>30</v>
       </c>
@@ -14972,15 +14972,15 @@
         <v>24079</v>
       </c>
       <c r="Y127" s="1">
-        <f>YEAR(X127)</f>
+        <f t="shared" si="3"/>
         <v>1965</v>
       </c>
       <c r="Z127" s="1">
-        <f>MONTH(X127)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="AA127" s="1">
-        <f>DAY(X127)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AB127" s="1" t="s">
@@ -14993,7 +14993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>30</v>
       </c>
@@ -15067,15 +15067,15 @@
         <v>23096</v>
       </c>
       <c r="Y128" s="1">
-        <f>YEAR(X128)</f>
+        <f t="shared" si="3"/>
         <v>1963</v>
       </c>
       <c r="Z128" s="1">
-        <f>MONTH(X128)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AA128" s="1">
-        <f>DAY(X128)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="AB128" s="1" t="s">
@@ -15088,7 +15088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>30</v>
       </c>
@@ -15162,15 +15162,15 @@
         <v>29075</v>
       </c>
       <c r="Y129" s="1">
-        <f>YEAR(X129)</f>
+        <f t="shared" si="3"/>
         <v>1979</v>
       </c>
       <c r="Z129" s="1">
-        <f>MONTH(X129)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AA129" s="1">
-        <f>DAY(X129)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AB129" s="1" t="s">
@@ -15183,7 +15183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>30</v>
       </c>
@@ -15257,15 +15257,15 @@
         <v>32656</v>
       </c>
       <c r="Y130" s="1">
-        <f>YEAR(X130)</f>
+        <f t="shared" si="3"/>
         <v>1989</v>
       </c>
       <c r="Z130" s="1">
-        <f>MONTH(X130)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AA130" s="1">
-        <f>DAY(X130)</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="AB130" s="1" t="s">
@@ -15278,7 +15278,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>30</v>
       </c>
@@ -15352,15 +15352,15 @@
         <v>27414</v>
       </c>
       <c r="Y131" s="1">
-        <f>YEAR(X131)</f>
+        <f t="shared" ref="Y131:Y194" si="6">YEAR(X131)</f>
         <v>1975</v>
       </c>
       <c r="Z131" s="1">
-        <f>MONTH(X131)</f>
+        <f t="shared" ref="Z131:Z194" si="7">MONTH(X131)</f>
         <v>1</v>
       </c>
       <c r="AA131" s="1">
-        <f>DAY(X131)</f>
+        <f t="shared" ref="AA131:AA194" si="8">DAY(X131)</f>
         <v>20</v>
       </c>
       <c r="AB131" s="1" t="s">
@@ -15373,7 +15373,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>30</v>
       </c>
@@ -15447,15 +15447,15 @@
         <v>35304</v>
       </c>
       <c r="Y132" s="1">
-        <f>YEAR(X132)</f>
+        <f t="shared" si="6"/>
         <v>1996</v>
       </c>
       <c r="Z132" s="1">
-        <f>MONTH(X132)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="AA132" s="1">
-        <f>DAY(X132)</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="AB132" s="1" t="s">
@@ -15468,7 +15468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>30</v>
       </c>
@@ -15542,15 +15542,15 @@
         <v>32023</v>
       </c>
       <c r="Y133" s="1">
-        <f>YEAR(X133)</f>
+        <f t="shared" si="6"/>
         <v>1987</v>
       </c>
       <c r="Z133" s="1">
-        <f>MONTH(X133)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AA133" s="1">
-        <f>DAY(X133)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AB133" s="1" t="s">
@@ -15561,7 +15561,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>30</v>
       </c>
@@ -15635,15 +15635,15 @@
         <v>27179</v>
       </c>
       <c r="Y134" s="1">
-        <f>YEAR(X134)</f>
+        <f t="shared" si="6"/>
         <v>1974</v>
       </c>
       <c r="Z134" s="1">
-        <f>MONTH(X134)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AA134" s="1">
-        <f>DAY(X134)</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="AB134" s="1" t="s">
@@ -15656,7 +15656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>30</v>
       </c>
@@ -15730,15 +15730,15 @@
         <v>25417</v>
       </c>
       <c r="Y135" s="1">
-        <f>YEAR(X135)</f>
+        <f t="shared" si="6"/>
         <v>1969</v>
       </c>
       <c r="Z135" s="1">
-        <f>MONTH(X135)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="AA135" s="1">
-        <f>DAY(X135)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AB135" s="1" t="s">
@@ -15751,7 +15751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>30</v>
       </c>
@@ -15825,15 +15825,15 @@
         <v>34345</v>
       </c>
       <c r="Y136" s="1">
-        <f>YEAR(X136)</f>
+        <f t="shared" si="6"/>
         <v>1994</v>
       </c>
       <c r="Z136" s="1">
-        <f>MONTH(X136)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AA136" s="1">
-        <f>DAY(X136)</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="AB136" s="1" t="s">
@@ -15846,7 +15846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>30</v>
       </c>
@@ -15920,15 +15920,15 @@
         <v>25840</v>
       </c>
       <c r="Y137" s="1">
-        <f>YEAR(X137)</f>
+        <f t="shared" si="6"/>
         <v>1970</v>
       </c>
       <c r="Z137" s="1">
-        <f>MONTH(X137)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AA137" s="1">
-        <f>DAY(X137)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="AB137" s="1" t="s">
@@ -15941,7 +15941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>30</v>
       </c>
@@ -16015,15 +16015,15 @@
         <v>26343</v>
       </c>
       <c r="Y138" s="1">
-        <f>YEAR(X138)</f>
+        <f t="shared" si="6"/>
         <v>1972</v>
       </c>
       <c r="Z138" s="1">
-        <f>MONTH(X138)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AA138" s="1">
-        <f>DAY(X138)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AB138" s="1" t="s">
@@ -16036,7 +16036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>30</v>
       </c>
@@ -16110,15 +16110,15 @@
         <v>28732</v>
       </c>
       <c r="Y139" s="6">
-        <f>YEAR(X139)</f>
+        <f t="shared" si="6"/>
         <v>1978</v>
       </c>
       <c r="Z139" s="6">
-        <f>MONTH(X139)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="AA139" s="6">
-        <f>DAY(X139)</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="AB139" s="6" t="s">
@@ -16131,7 +16131,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>30</v>
       </c>
@@ -16205,15 +16205,15 @@
         <v>30520</v>
       </c>
       <c r="Y140" s="6">
-        <f>YEAR(X140)</f>
+        <f t="shared" si="6"/>
         <v>1983</v>
       </c>
       <c r="Z140" s="6">
-        <f>MONTH(X140)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AA140" s="6">
-        <f>DAY(X140)</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="AB140" s="6" t="s">
@@ -16226,7 +16226,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>30</v>
       </c>
@@ -16300,15 +16300,15 @@
         <v>33921</v>
       </c>
       <c r="Y141" s="6">
-        <f>YEAR(X141)</f>
+        <f t="shared" si="6"/>
         <v>1992</v>
       </c>
       <c r="Z141" s="6">
-        <f>MONTH(X141)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AA141" s="6">
-        <f>DAY(X141)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="AB141" s="6" t="s">
@@ -16321,7 +16321,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>30</v>
       </c>
@@ -16395,15 +16395,15 @@
         <v>24902</v>
       </c>
       <c r="Y142" s="6">
-        <f>YEAR(X142)</f>
+        <f t="shared" si="6"/>
         <v>1968</v>
       </c>
       <c r="Z142" s="6">
-        <f>MONTH(X142)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AA142" s="6">
-        <f>DAY(X142)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AB142" s="6" t="s">
@@ -16416,7 +16416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>30</v>
       </c>
@@ -16490,15 +16490,15 @@
         <v>29539</v>
       </c>
       <c r="Y143" s="6">
-        <f>YEAR(X143)</f>
+        <f t="shared" si="6"/>
         <v>1980</v>
       </c>
       <c r="Z143" s="6">
-        <f>MONTH(X143)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AA143" s="6">
-        <f>DAY(X143)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AB143" s="6" t="s">
@@ -16511,7 +16511,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>30</v>
       </c>
@@ -16585,15 +16585,15 @@
         <v>26648</v>
       </c>
       <c r="Y144" s="6">
-        <f>YEAR(X144)</f>
+        <f t="shared" si="6"/>
         <v>1972</v>
       </c>
       <c r="Z144" s="6">
-        <f>MONTH(X144)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="AA144" s="6">
-        <f>DAY(X144)</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="AB144" s="6" t="s">
@@ -16606,7 +16606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>30</v>
       </c>
@@ -16680,15 +16680,15 @@
         <v>26252</v>
       </c>
       <c r="Y145" s="6">
-        <f>YEAR(X145)</f>
+        <f t="shared" si="6"/>
         <v>1971</v>
       </c>
       <c r="Z145" s="6">
-        <f>MONTH(X145)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AA145" s="6">
-        <f>DAY(X145)</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="AB145" s="6" t="s">
@@ -16701,7 +16701,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>30</v>
       </c>
@@ -16775,15 +16775,15 @@
         <v>27287</v>
       </c>
       <c r="Y146" s="6">
-        <f>YEAR(X146)</f>
+        <f t="shared" si="6"/>
         <v>1974</v>
       </c>
       <c r="Z146" s="6">
-        <f>MONTH(X146)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AA146" s="6">
-        <f>DAY(X146)</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="AB146" s="6" t="s">
@@ -16796,7 +16796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>30</v>
       </c>
@@ -16870,15 +16870,15 @@
         <v>26409</v>
       </c>
       <c r="Y147" s="6">
-        <f>YEAR(X147)</f>
+        <f t="shared" si="6"/>
         <v>1972</v>
       </c>
       <c r="Z147" s="6">
-        <f>MONTH(X147)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AA147" s="6">
-        <f>DAY(X147)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="AB147" s="6" t="s">
@@ -16891,7 +16891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>30</v>
       </c>
@@ -16965,15 +16965,15 @@
         <v>30089</v>
       </c>
       <c r="Y148" s="6">
-        <f>YEAR(X148)</f>
+        <f t="shared" si="6"/>
         <v>1982</v>
       </c>
       <c r="Z148" s="6">
-        <f>MONTH(X148)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AA148" s="6">
-        <f>DAY(X148)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="AB148" s="6" t="s">
@@ -16986,7 +16986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>30</v>
       </c>
@@ -17060,15 +17060,15 @@
         <v>30848</v>
       </c>
       <c r="Y149" s="6">
-        <f>YEAR(X149)</f>
+        <f t="shared" si="6"/>
         <v>1984</v>
       </c>
       <c r="Z149" s="6">
-        <f>MONTH(X149)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AA149" s="6">
-        <f>DAY(X149)</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="AB149" s="6" t="s">
@@ -17081,7 +17081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>30</v>
       </c>
@@ -17155,15 +17155,15 @@
         <v>26421</v>
       </c>
       <c r="Y150" s="6">
-        <f>YEAR(X150)</f>
+        <f t="shared" si="6"/>
         <v>1972</v>
       </c>
       <c r="Z150" s="6">
-        <f>MONTH(X150)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AA150" s="6">
-        <f>DAY(X150)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AB150" s="6" t="s">
@@ -17176,7 +17176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>30</v>
       </c>
@@ -17250,15 +17250,15 @@
         <v>21798</v>
       </c>
       <c r="Y151" s="6">
-        <f>YEAR(X151)</f>
+        <f t="shared" si="6"/>
         <v>1959</v>
       </c>
       <c r="Z151" s="6">
-        <f>MONTH(X151)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AA151" s="6">
-        <f>DAY(X151)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AB151" s="6" t="s">
@@ -17271,7 +17271,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>30</v>
       </c>
@@ -17345,15 +17345,15 @@
         <v>32372</v>
       </c>
       <c r="Y152" s="1">
-        <f>YEAR(X152)</f>
+        <f t="shared" si="6"/>
         <v>1988</v>
       </c>
       <c r="Z152" s="1">
-        <f>MONTH(X152)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="AA152" s="1">
-        <f>DAY(X152)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="AB152" s="1" t="s">
@@ -17366,7 +17366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>30</v>
       </c>
@@ -17440,15 +17440,15 @@
         <v>32454</v>
       </c>
       <c r="Y153" s="1">
-        <f>YEAR(X153)</f>
+        <f t="shared" si="6"/>
         <v>1988</v>
       </c>
       <c r="Z153" s="1">
-        <f>MONTH(X153)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AA153" s="1">
-        <f>DAY(X153)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AB153" s="1" t="s">
@@ -17461,7 +17461,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>30</v>
       </c>
@@ -17535,15 +17535,15 @@
         <v>25452</v>
       </c>
       <c r="Y154" s="1">
-        <f>YEAR(X154)</f>
+        <f t="shared" si="6"/>
         <v>1969</v>
       </c>
       <c r="Z154" s="1">
-        <f>MONTH(X154)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AA154" s="1">
-        <f>DAY(X154)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AB154" s="1" t="s">
@@ -17556,7 +17556,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>30</v>
       </c>
@@ -17630,15 +17630,15 @@
         <v>27868</v>
       </c>
       <c r="Y155" s="1">
-        <f>YEAR(X155)</f>
+        <f t="shared" si="6"/>
         <v>1976</v>
       </c>
       <c r="Z155" s="1">
-        <f>MONTH(X155)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AA155" s="1">
-        <f>DAY(X155)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="AB155" s="1" t="s">
@@ -17649,7 +17649,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>30</v>
       </c>
@@ -17723,15 +17723,15 @@
         <v>26937</v>
       </c>
       <c r="Y156" s="1">
-        <f>YEAR(X156)</f>
+        <f t="shared" si="6"/>
         <v>1973</v>
       </c>
       <c r="Z156" s="1">
-        <f>MONTH(X156)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AA156" s="1">
-        <f>DAY(X156)</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="AB156" s="1" t="s">
@@ -17744,7 +17744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>30</v>
       </c>
@@ -17818,15 +17818,15 @@
         <v>33679</v>
       </c>
       <c r="Y157" s="1">
-        <f>YEAR(X157)</f>
+        <f t="shared" si="6"/>
         <v>1992</v>
       </c>
       <c r="Z157" s="1">
-        <f>MONTH(X157)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AA157" s="1">
-        <f>DAY(X157)</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AB157" s="1" t="s">
@@ -17839,7 +17839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>30</v>
       </c>
@@ -17913,15 +17913,15 @@
         <v>33076</v>
       </c>
       <c r="Y158" s="1">
-        <f>YEAR(X158)</f>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
       <c r="Z158" s="1">
-        <f>MONTH(X158)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AA158" s="1">
-        <f>DAY(X158)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AB158" s="1" t="s">
@@ -17934,7 +17934,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>30</v>
       </c>
@@ -18008,15 +18008,15 @@
         <v>31086</v>
       </c>
       <c r="Y159" s="1">
-        <f>YEAR(X159)</f>
+        <f t="shared" si="6"/>
         <v>1985</v>
       </c>
       <c r="Z159" s="1">
-        <f>MONTH(X159)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AA159" s="1">
-        <f>DAY(X159)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="AB159" s="1" t="s">
@@ -18029,7 +18029,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>30</v>
       </c>
@@ -18103,15 +18103,15 @@
         <v>31951</v>
       </c>
       <c r="Y160" s="1">
-        <f>YEAR(X160)</f>
+        <f t="shared" si="6"/>
         <v>1987</v>
       </c>
       <c r="Z160" s="1">
-        <f>MONTH(X160)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AA160" s="1">
-        <f>DAY(X160)</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="AB160" s="1" t="s">
@@ -18124,7 +18124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>30</v>
       </c>
@@ -18198,15 +18198,15 @@
         <v>33701</v>
       </c>
       <c r="Y161" s="1">
-        <f>YEAR(X161)</f>
+        <f t="shared" si="6"/>
         <v>1992</v>
       </c>
       <c r="Z161" s="1">
-        <f>MONTH(X161)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AA161" s="1">
-        <f>DAY(X161)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AB161" s="1" t="s">
@@ -18219,7 +18219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>30</v>
       </c>
@@ -18293,15 +18293,15 @@
         <v>33773</v>
       </c>
       <c r="Y162" s="1">
-        <f>YEAR(X162)</f>
+        <f t="shared" si="6"/>
         <v>1992</v>
       </c>
       <c r="Z162" s="1">
-        <f>MONTH(X162)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AA162" s="1">
-        <f>DAY(X162)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="AB162" s="1" t="s">
@@ -18314,7 +18314,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>30</v>
       </c>
@@ -18388,15 +18388,15 @@
         <v>26927</v>
       </c>
       <c r="Y163" s="1">
-        <f>YEAR(X163)</f>
+        <f t="shared" si="6"/>
         <v>1973</v>
       </c>
       <c r="Z163" s="1">
-        <f>MONTH(X163)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AA163" s="1">
-        <f>DAY(X163)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="AB163" s="1" t="s">
@@ -18409,7 +18409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>30</v>
       </c>
@@ -18483,15 +18483,15 @@
         <v>23630</v>
       </c>
       <c r="Y164" s="1">
-        <f>YEAR(X164)</f>
+        <f t="shared" si="6"/>
         <v>1964</v>
       </c>
       <c r="Z164" s="1">
-        <f>MONTH(X164)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AA164" s="1">
-        <f>DAY(X164)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="AB164" s="1" t="s">
@@ -18504,7 +18504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>30</v>
       </c>
@@ -18578,15 +18578,15 @@
         <v>25303</v>
       </c>
       <c r="Y165" s="1">
-        <f>YEAR(X165)</f>
+        <f t="shared" si="6"/>
         <v>1969</v>
       </c>
       <c r="Z165" s="1">
-        <f>MONTH(X165)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AA165" s="1">
-        <f>DAY(X165)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="AB165" s="1" t="s">
@@ -18599,7 +18599,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>30</v>
       </c>
@@ -18673,15 +18673,15 @@
         <v>26839</v>
       </c>
       <c r="Y166" s="1">
-        <f>YEAR(X166)</f>
+        <f t="shared" si="6"/>
         <v>1973</v>
       </c>
       <c r="Z166" s="1">
-        <f>MONTH(X166)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AA166" s="1">
-        <f>DAY(X166)</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="AB166" s="1" t="s">
@@ -18694,7 +18694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>30</v>
       </c>
@@ -18768,15 +18768,15 @@
         <v>26339</v>
       </c>
       <c r="Y167" s="6">
-        <f>YEAR(X167)</f>
+        <f t="shared" si="6"/>
         <v>1972</v>
       </c>
       <c r="Z167" s="6">
-        <f>MONTH(X167)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AA167" s="6">
-        <f>DAY(X167)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="AB167" s="6" t="s">
@@ -18789,7 +18789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>30</v>
       </c>
@@ -18863,15 +18863,15 @@
         <v>27657</v>
       </c>
       <c r="Y168" s="6">
-        <f>YEAR(X168)</f>
+        <f t="shared" si="6"/>
         <v>1975</v>
       </c>
       <c r="Z168" s="6">
-        <f>MONTH(X168)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AA168" s="6">
-        <f>DAY(X168)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="AB168" s="6" t="s">
@@ -18884,7 +18884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>30</v>
       </c>
@@ -18958,15 +18958,15 @@
         <v>32230</v>
       </c>
       <c r="Y169" s="6">
-        <f>YEAR(X169)</f>
+        <f t="shared" si="6"/>
         <v>1988</v>
       </c>
       <c r="Z169" s="6">
-        <f>MONTH(X169)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AA169" s="6">
-        <f>DAY(X169)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="AB169" s="6" t="s">
@@ -18979,7 +18979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>30</v>
       </c>
@@ -19053,15 +19053,15 @@
         <v>22347</v>
       </c>
       <c r="Y170" s="6">
-        <f>YEAR(X170)</f>
+        <f t="shared" si="6"/>
         <v>1961</v>
       </c>
       <c r="Z170" s="6">
-        <f>MONTH(X170)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AA170" s="6">
-        <f>DAY(X170)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AB170" s="6" t="s">
@@ -19074,7 +19074,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>30</v>
       </c>
@@ -19148,15 +19148,15 @@
         <v>22347</v>
       </c>
       <c r="Y171" s="6">
-        <f>YEAR(X171)</f>
+        <f t="shared" si="6"/>
         <v>1961</v>
       </c>
       <c r="Z171" s="6">
-        <f>MONTH(X171)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AA171" s="6">
-        <f>DAY(X171)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AB171" s="6" t="s">
@@ -19169,7 +19169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>30</v>
       </c>
@@ -19243,15 +19243,15 @@
         <v>24854</v>
       </c>
       <c r="Y172" s="6">
-        <f>YEAR(X172)</f>
+        <f t="shared" si="6"/>
         <v>1968</v>
       </c>
       <c r="Z172" s="6">
-        <f>MONTH(X172)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AA172" s="6">
-        <f>DAY(X172)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="AB172" s="6" t="s">
@@ -19264,7 +19264,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>30</v>
       </c>
@@ -19338,15 +19338,15 @@
         <v>27051</v>
       </c>
       <c r="Y173" s="6">
-        <f>YEAR(X173)</f>
+        <f t="shared" si="6"/>
         <v>1974</v>
       </c>
       <c r="Z173" s="6">
-        <f>MONTH(X173)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AA173" s="6">
-        <f>DAY(X173)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AB173" s="6" t="s">
@@ -19359,7 +19359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>30</v>
       </c>
@@ -19433,15 +19433,15 @@
         <v>28932</v>
       </c>
       <c r="Y174" s="6">
-        <f>YEAR(X174)</f>
+        <f t="shared" si="6"/>
         <v>1979</v>
       </c>
       <c r="Z174" s="6">
-        <f>MONTH(X174)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AA174" s="6">
-        <f>DAY(X174)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="AB174" s="6" t="s">
@@ -19454,7 +19454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>30</v>
       </c>
@@ -19528,15 +19528,15 @@
         <v>23004</v>
       </c>
       <c r="Y175" s="6">
-        <f>YEAR(X175)</f>
+        <f t="shared" si="6"/>
         <v>1962</v>
       </c>
       <c r="Z175" s="6">
-        <f>MONTH(X175)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="AA175" s="6">
-        <f>DAY(X175)</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="AB175" s="6" t="s">
@@ -19549,7 +19549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>30</v>
       </c>
@@ -19623,15 +19623,15 @@
         <v>35595</v>
       </c>
       <c r="Y176" s="6">
-        <f>YEAR(X176)</f>
+        <f t="shared" si="6"/>
         <v>1997</v>
       </c>
       <c r="Z176" s="6">
-        <f>MONTH(X176)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AA176" s="6">
-        <f>DAY(X176)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AB176" s="6" t="s">
@@ -19644,7 +19644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>30</v>
       </c>
@@ -19718,15 +19718,15 @@
         <v>30575</v>
       </c>
       <c r="Y177" s="6">
-        <f>YEAR(X177)</f>
+        <f t="shared" si="6"/>
         <v>1983</v>
       </c>
       <c r="Z177" s="6">
-        <f>MONTH(X177)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AA177" s="6">
-        <f>DAY(X177)</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AB177" s="6" t="s">
@@ -19739,7 +19739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>30</v>
       </c>
@@ -19813,15 +19813,15 @@
         <v>34798</v>
       </c>
       <c r="Y178" s="6">
-        <f>YEAR(X178)</f>
+        <f t="shared" si="6"/>
         <v>1995</v>
       </c>
       <c r="Z178" s="6">
-        <f>MONTH(X178)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AA178" s="6">
-        <f>DAY(X178)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="AB178" s="6" t="s">
@@ -19834,7 +19834,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>30</v>
       </c>
@@ -19908,15 +19908,15 @@
         <v>30851</v>
       </c>
       <c r="Y179" s="6">
-        <f>YEAR(X179)</f>
+        <f t="shared" si="6"/>
         <v>1984</v>
       </c>
       <c r="Z179" s="6">
-        <f>MONTH(X179)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AA179" s="6">
-        <f>DAY(X179)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="AB179" s="6" t="s">
@@ -19929,7 +19929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>30</v>
       </c>
@@ -20003,15 +20003,15 @@
         <v>24547</v>
       </c>
       <c r="Y180" s="6">
-        <f>YEAR(X180)</f>
+        <f t="shared" si="6"/>
         <v>1967</v>
       </c>
       <c r="Z180" s="6">
-        <f>MONTH(X180)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AA180" s="6">
-        <f>DAY(X180)</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AB180" s="6" t="s">
@@ -20024,7 +20024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>30</v>
       </c>
@@ -20098,15 +20098,15 @@
         <v>23925</v>
       </c>
       <c r="Y181" s="6">
-        <f>YEAR(X181)</f>
+        <f t="shared" si="6"/>
         <v>1965</v>
       </c>
       <c r="Z181" s="6">
-        <f>MONTH(X181)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AA181" s="6">
-        <f>DAY(X181)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AB181" s="6" t="s">
@@ -20119,7 +20119,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>30</v>
       </c>
@@ -20193,15 +20193,15 @@
         <v>31592</v>
       </c>
       <c r="Y182" s="1">
-        <f>YEAR(X182)</f>
+        <f t="shared" si="6"/>
         <v>1986</v>
       </c>
       <c r="Z182" s="1">
-        <f>MONTH(X182)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AA182" s="1">
-        <f>DAY(X182)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="AB182" s="1" t="s">
@@ -20214,7 +20214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>30</v>
       </c>
@@ -20288,15 +20288,15 @@
         <v>27293</v>
       </c>
       <c r="Y183" s="1">
-        <f>YEAR(X183)</f>
+        <f t="shared" si="6"/>
         <v>1974</v>
       </c>
       <c r="Z183" s="1">
-        <f>MONTH(X183)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AA183" s="1">
-        <f>DAY(X183)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="AB183" s="1" t="s">
@@ -20309,7 +20309,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>30</v>
       </c>
@@ -20383,15 +20383,15 @@
         <v>32825</v>
       </c>
       <c r="Y184" s="1">
-        <f>YEAR(X184)</f>
+        <f t="shared" si="6"/>
         <v>1989</v>
       </c>
       <c r="Z184" s="1">
-        <f>MONTH(X184)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AA184" s="1">
-        <f>DAY(X184)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="AB184" s="1" t="s">
@@ -20404,7 +20404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>30</v>
       </c>
@@ -20478,15 +20478,15 @@
         <v>25866</v>
       </c>
       <c r="Y185" s="1">
-        <f>YEAR(X185)</f>
+        <f t="shared" si="6"/>
         <v>1970</v>
       </c>
       <c r="Z185" s="1">
-        <f>MONTH(X185)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AA185" s="1">
-        <f>DAY(X185)</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AB185" s="1" t="s">
@@ -20499,7 +20499,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>30</v>
       </c>
@@ -20573,15 +20573,15 @@
         <v>32130</v>
       </c>
       <c r="Y186" s="1">
-        <f>YEAR(X186)</f>
+        <f t="shared" si="6"/>
         <v>1987</v>
       </c>
       <c r="Z186" s="1">
-        <f>MONTH(X186)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="AA186" s="1">
-        <f>DAY(X186)</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="AB186" s="1" t="s">
@@ -20594,7 +20594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>30</v>
       </c>
@@ -20668,15 +20668,15 @@
         <v>32549</v>
       </c>
       <c r="Y187" s="1">
-        <f>YEAR(X187)</f>
+        <f t="shared" si="6"/>
         <v>1989</v>
       </c>
       <c r="Z187" s="1">
-        <f>MONTH(X187)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AA187" s="1">
-        <f>DAY(X187)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="AB187" s="1" t="s">
@@ -20689,7 +20689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>30</v>
       </c>
@@ -20763,15 +20763,15 @@
         <v>28125</v>
       </c>
       <c r="Y188" s="1">
-        <f>YEAR(X188)</f>
+        <f t="shared" si="6"/>
         <v>1976</v>
       </c>
       <c r="Z188" s="1">
-        <f>MONTH(X188)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="AA188" s="1">
-        <f>DAY(X188)</f>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="AB188" s="1" t="s">
@@ -20784,7 +20784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>30</v>
       </c>
@@ -20858,15 +20858,15 @@
         <v>25746</v>
       </c>
       <c r="Y189" s="1">
-        <f>YEAR(X189)</f>
+        <f t="shared" si="6"/>
         <v>1970</v>
       </c>
       <c r="Z189" s="1">
-        <f>MONTH(X189)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AA189" s="1">
-        <f>DAY(X189)</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="AB189" s="1" t="s">
@@ -20879,7 +20879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>30</v>
       </c>
@@ -20953,15 +20953,15 @@
         <v>21388</v>
       </c>
       <c r="Y190" s="1">
-        <f>YEAR(X190)</f>
+        <f t="shared" si="6"/>
         <v>1958</v>
       </c>
       <c r="Z190" s="1">
-        <f>MONTH(X190)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AA190" s="1">
-        <f>DAY(X190)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AB190" s="1" t="s">
@@ -20974,7 +20974,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>30</v>
       </c>
@@ -21048,15 +21048,15 @@
         <v>28309</v>
       </c>
       <c r="Y191" s="1">
-        <f>YEAR(X191)</f>
+        <f t="shared" si="6"/>
         <v>1977</v>
       </c>
       <c r="Z191" s="1">
-        <f>MONTH(X191)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AA191" s="1">
-        <f>DAY(X191)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AB191" s="1" t="s">
@@ -21069,7 +21069,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>30</v>
       </c>
@@ -21143,15 +21143,15 @@
         <v>32358</v>
       </c>
       <c r="Y192" s="1">
-        <f>YEAR(X192)</f>
+        <f t="shared" si="6"/>
         <v>1988</v>
       </c>
       <c r="Z192" s="1">
-        <f>MONTH(X192)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="AA192" s="1">
-        <f>DAY(X192)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AB192" s="1" t="s">
@@ -21164,7 +21164,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>30</v>
       </c>
@@ -21238,15 +21238,15 @@
         <v>24175</v>
       </c>
       <c r="Y193" s="1">
-        <f>YEAR(X193)</f>
+        <f t="shared" si="6"/>
         <v>1966</v>
       </c>
       <c r="Z193" s="1">
-        <f>MONTH(X193)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AA193" s="1">
-        <f>DAY(X193)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="AB193" s="1" t="s">
@@ -21259,7 +21259,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>30</v>
       </c>
@@ -21333,15 +21333,15 @@
         <v>26440</v>
       </c>
       <c r="Y194" s="1">
-        <f>YEAR(X194)</f>
+        <f t="shared" si="6"/>
         <v>1972</v>
       </c>
       <c r="Z194" s="1">
-        <f>MONTH(X194)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AA194" s="1">
-        <f>DAY(X194)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="AB194" s="1" t="s">
@@ -21354,7 +21354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>30</v>
       </c>
@@ -21428,15 +21428,15 @@
         <v>33714</v>
       </c>
       <c r="Y195" s="1">
-        <f>YEAR(X195)</f>
+        <f t="shared" ref="Y195:Y258" si="9">YEAR(X195)</f>
         <v>1992</v>
       </c>
       <c r="Z195" s="1">
-        <f>MONTH(X195)</f>
+        <f t="shared" ref="Z195:Z258" si="10">MONTH(X195)</f>
         <v>4</v>
       </c>
       <c r="AA195" s="1">
-        <f>DAY(X195)</f>
+        <f t="shared" ref="AA195:AA258" si="11">DAY(X195)</f>
         <v>20</v>
       </c>
       <c r="AB195" s="1" t="s">
@@ -21449,7 +21449,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>30</v>
       </c>
@@ -21523,15 +21523,15 @@
         <v>31793</v>
       </c>
       <c r="Y196" s="6">
-        <f>YEAR(X196)</f>
+        <f t="shared" si="9"/>
         <v>1987</v>
       </c>
       <c r="Z196" s="6">
-        <f>MONTH(X196)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA196" s="6">
-        <f>DAY(X196)</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="AB196" s="6" t="s">
@@ -21544,7 +21544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>30</v>
       </c>
@@ -21618,15 +21618,15 @@
         <v>24359</v>
       </c>
       <c r="Y197" s="6">
-        <f>YEAR(X197)</f>
+        <f t="shared" si="9"/>
         <v>1966</v>
       </c>
       <c r="Z197" s="6">
-        <f>MONTH(X197)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="AA197" s="6">
-        <f>DAY(X197)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="AB197" s="6" t="s">
@@ -21639,7 +21639,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>30</v>
       </c>
@@ -21713,15 +21713,15 @@
         <v>27055</v>
       </c>
       <c r="Y198" s="6">
-        <f>YEAR(X198)</f>
+        <f t="shared" si="9"/>
         <v>1974</v>
       </c>
       <c r="Z198" s="6">
-        <f>MONTH(X198)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA198" s="6">
-        <f>DAY(X198)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="AB198" s="6" t="s">
@@ -21734,7 +21734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>30</v>
       </c>
@@ -21808,15 +21808,15 @@
         <v>29823</v>
       </c>
       <c r="Y199" s="6">
-        <f>YEAR(X199)</f>
+        <f t="shared" si="9"/>
         <v>1981</v>
       </c>
       <c r="Z199" s="6">
-        <f>MONTH(X199)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AA199" s="6">
-        <f>DAY(X199)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="AB199" s="6" t="s">
@@ -21829,7 +21829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>30</v>
       </c>
@@ -21903,15 +21903,15 @@
         <v>24942</v>
       </c>
       <c r="Y200" s="6">
-        <f>YEAR(X200)</f>
+        <f t="shared" si="9"/>
         <v>1968</v>
       </c>
       <c r="Z200" s="6">
-        <f>MONTH(X200)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA200" s="6">
-        <f>DAY(X200)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="AB200" s="6" t="s">
@@ -21924,7 +21924,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>30</v>
       </c>
@@ -21998,15 +21998,15 @@
         <v>29533</v>
       </c>
       <c r="Y201" s="6">
-        <f>YEAR(X201)</f>
+        <f t="shared" si="9"/>
         <v>1980</v>
       </c>
       <c r="Z201" s="6">
-        <f>MONTH(X201)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="AA201" s="6">
-        <f>DAY(X201)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AB201" s="6" t="s">
@@ -22019,7 +22019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>30</v>
       </c>
@@ -22093,15 +22093,15 @@
         <v>23197</v>
       </c>
       <c r="Y202" s="6">
-        <f>YEAR(X202)</f>
+        <f t="shared" si="9"/>
         <v>1963</v>
       </c>
       <c r="Z202" s="6">
-        <f>MONTH(X202)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="AA202" s="6">
-        <f>DAY(X202)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AB202" s="6" t="s">
@@ -22112,7 +22112,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>30</v>
       </c>
@@ -22186,15 +22186,15 @@
         <v>33770</v>
       </c>
       <c r="Y203" s="6">
-        <f>YEAR(X203)</f>
+        <f t="shared" si="9"/>
         <v>1992</v>
       </c>
       <c r="Z203" s="6">
-        <f>MONTH(X203)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AA203" s="6">
-        <f>DAY(X203)</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="AB203" s="6" t="s">
@@ -22207,7 +22207,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>30</v>
       </c>
@@ -22281,15 +22281,15 @@
         <v>26468</v>
       </c>
       <c r="Y204" s="6">
-        <f>YEAR(X204)</f>
+        <f t="shared" si="9"/>
         <v>1972</v>
       </c>
       <c r="Z204" s="6">
-        <f>MONTH(X204)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AA204" s="6">
-        <f>DAY(X204)</f>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="AB204" s="6" t="s">
@@ -22302,7 +22302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>30</v>
       </c>
@@ -22376,15 +22376,15 @@
         <v>24967</v>
       </c>
       <c r="Y205" s="6">
-        <f>YEAR(X205)</f>
+        <f t="shared" si="9"/>
         <v>1968</v>
       </c>
       <c r="Z205" s="6">
-        <f>MONTH(X205)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AA205" s="6">
-        <f>DAY(X205)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="AB205" s="6" t="s">
@@ -22397,7 +22397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>30</v>
       </c>
@@ -22471,15 +22471,15 @@
         <v>23673</v>
       </c>
       <c r="Y206" s="6">
-        <f>YEAR(X206)</f>
+        <f t="shared" si="9"/>
         <v>1964</v>
       </c>
       <c r="Z206" s="6">
-        <f>MONTH(X206)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AA206" s="6">
-        <f>DAY(X206)</f>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="AB206" s="6" t="s">
@@ -22492,7 +22492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>30</v>
       </c>
@@ -22566,15 +22566,15 @@
         <v>26948</v>
       </c>
       <c r="Y207" s="6">
-        <f>YEAR(X207)</f>
+        <f t="shared" si="9"/>
         <v>1973</v>
       </c>
       <c r="Z207" s="6">
-        <f>MONTH(X207)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AA207" s="6">
-        <f>DAY(X207)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="AB207" s="6" t="s">
@@ -22587,7 +22587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>30</v>
       </c>
@@ -22661,15 +22661,15 @@
         <v>25521</v>
       </c>
       <c r="Y208" s="6">
-        <f>YEAR(X208)</f>
+        <f t="shared" si="9"/>
         <v>1969</v>
       </c>
       <c r="Z208" s="6">
-        <f>MONTH(X208)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="AA208" s="6">
-        <f>DAY(X208)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="AB208" s="6" t="s">
@@ -22682,7 +22682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>30</v>
       </c>
@@ -22756,15 +22756,15 @@
         <v>31577</v>
       </c>
       <c r="Y209" s="6">
-        <f>YEAR(X209)</f>
+        <f t="shared" si="9"/>
         <v>1986</v>
       </c>
       <c r="Z209" s="6">
-        <f>MONTH(X209)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AA209" s="6">
-        <f>DAY(X209)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="AB209" s="6" t="s">
@@ -22777,7 +22777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>30</v>
       </c>
@@ -22851,15 +22851,15 @@
         <v>25487</v>
       </c>
       <c r="Y210" s="1">
-        <f>YEAR(X210)</f>
+        <f t="shared" si="9"/>
         <v>1969</v>
       </c>
       <c r="Z210" s="1">
-        <f>MONTH(X210)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AA210" s="1">
-        <f>DAY(X210)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="AB210" s="1" t="s">
@@ -22872,7 +22872,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>30</v>
       </c>
@@ -22946,15 +22946,15 @@
         <v>27306</v>
       </c>
       <c r="Y211" s="1">
-        <f>YEAR(X211)</f>
+        <f t="shared" si="9"/>
         <v>1974</v>
       </c>
       <c r="Z211" s="1">
-        <f>MONTH(X211)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AA211" s="1">
-        <f>DAY(X211)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AB211" s="1" t="s">
@@ -22967,7 +22967,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>30</v>
       </c>
@@ -23041,15 +23041,15 @@
         <v>24237</v>
       </c>
       <c r="Y212" s="1">
-        <f>YEAR(X212)</f>
+        <f t="shared" si="9"/>
         <v>1966</v>
       </c>
       <c r="Z212" s="1">
-        <f>MONTH(X212)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AA212" s="1">
-        <f>DAY(X212)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="AB212" s="1" t="s">
@@ -23062,7 +23062,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>30</v>
       </c>
@@ -23136,15 +23136,15 @@
         <v>28240</v>
       </c>
       <c r="Y213" s="1">
-        <f>YEAR(X213)</f>
+        <f t="shared" si="9"/>
         <v>1977</v>
       </c>
       <c r="Z213" s="1">
-        <f>MONTH(X213)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA213" s="1">
-        <f>DAY(X213)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="AB213" s="1" t="s">
@@ -23157,7 +23157,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>30</v>
       </c>
@@ -23231,15 +23231,15 @@
         <v>28418</v>
       </c>
       <c r="Y214" s="1">
-        <f>YEAR(X214)</f>
+        <f t="shared" si="9"/>
         <v>1977</v>
       </c>
       <c r="Z214" s="1">
-        <f>MONTH(X214)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AA214" s="1">
-        <f>DAY(X214)</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="AB214" s="1" t="s">
@@ -23252,7 +23252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>30</v>
       </c>
@@ -23326,15 +23326,15 @@
         <v>22540</v>
       </c>
       <c r="Y215" s="1">
-        <f>YEAR(X215)</f>
+        <f t="shared" si="9"/>
         <v>1961</v>
       </c>
       <c r="Z215" s="1">
-        <f>MONTH(X215)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="AA215" s="1">
-        <f>DAY(X215)</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="AB215" s="1" t="s">
@@ -23347,7 +23347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>30</v>
       </c>
@@ -23421,15 +23421,15 @@
         <v>30179</v>
       </c>
       <c r="Y216" s="1">
-        <f>YEAR(X216)</f>
+        <f t="shared" si="9"/>
         <v>1982</v>
       </c>
       <c r="Z216" s="1">
-        <f>MONTH(X216)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AA216" s="1">
-        <f>DAY(X216)</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="AB216" s="1" t="s">
@@ -23442,7 +23442,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>30</v>
       </c>
@@ -23516,15 +23516,15 @@
         <v>31990</v>
       </c>
       <c r="Y217" s="1">
-        <f>YEAR(X217)</f>
+        <f t="shared" si="9"/>
         <v>1987</v>
       </c>
       <c r="Z217" s="1">
-        <f>MONTH(X217)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AA217" s="1">
-        <f>DAY(X217)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB217" s="1" t="s">
@@ -23537,7 +23537,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>30</v>
       </c>
@@ -23611,15 +23611,15 @@
         <v>26588</v>
       </c>
       <c r="Y218" s="1">
-        <f>YEAR(X218)</f>
+        <f t="shared" si="9"/>
         <v>1972</v>
       </c>
       <c r="Z218" s="1">
-        <f>MONTH(X218)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AA218" s="1">
-        <f>DAY(X218)</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="AB218" s="1" t="s">
@@ -23632,7 +23632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>30</v>
       </c>
@@ -23706,15 +23706,15 @@
         <v>23105</v>
       </c>
       <c r="Y219" s="1">
-        <f>YEAR(X219)</f>
+        <f t="shared" si="9"/>
         <v>1963</v>
       </c>
       <c r="Z219" s="1">
-        <f>MONTH(X219)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA219" s="1">
-        <f>DAY(X219)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AB219" s="1" t="s">
@@ -23727,7 +23727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>30</v>
       </c>
@@ -23801,15 +23801,15 @@
         <v>33249</v>
       </c>
       <c r="Y220" s="1">
-        <f>YEAR(X220)</f>
+        <f t="shared" si="9"/>
         <v>1991</v>
       </c>
       <c r="Z220" s="1">
-        <f>MONTH(X220)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA220" s="1">
-        <f>DAY(X220)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="AB220" s="1" t="s">
@@ -23822,7 +23822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>30</v>
       </c>
@@ -23896,15 +23896,15 @@
         <v>26143</v>
       </c>
       <c r="Y221" s="1">
-        <f>YEAR(X221)</f>
+        <f t="shared" si="9"/>
         <v>1971</v>
       </c>
       <c r="Z221" s="1">
-        <f>MONTH(X221)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="AA221" s="1">
-        <f>DAY(X221)</f>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="AB221" s="1" t="s">
@@ -23917,7 +23917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>30</v>
       </c>
@@ -23991,15 +23991,15 @@
         <v>33504</v>
       </c>
       <c r="Y222" s="1">
-        <f>YEAR(X222)</f>
+        <f t="shared" si="9"/>
         <v>1991</v>
       </c>
       <c r="Z222" s="1">
-        <f>MONTH(X222)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="AA222" s="1">
-        <f>DAY(X222)</f>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="AB222" s="1" t="s">
@@ -24012,7 +24012,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>30</v>
       </c>
@@ -24086,15 +24086,15 @@
         <v>25392</v>
       </c>
       <c r="Y223" s="6">
-        <f>YEAR(X223)</f>
+        <f t="shared" si="9"/>
         <v>1969</v>
       </c>
       <c r="Z223" s="6">
-        <f>MONTH(X223)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="AA223" s="6">
-        <f>DAY(X223)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AB223" s="6" t="s">
@@ -24107,7 +24107,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>30</v>
       </c>
@@ -24181,15 +24181,15 @@
         <v>24464</v>
       </c>
       <c r="Y224" s="6">
-        <f>YEAR(X224)</f>
+        <f t="shared" si="9"/>
         <v>1966</v>
       </c>
       <c r="Z224" s="6">
-        <f>MONTH(X224)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="AA224" s="6">
-        <f>DAY(X224)</f>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="AB224" s="6" t="s">
@@ -24202,7 +24202,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>30</v>
       </c>
@@ -24276,15 +24276,15 @@
         <v>22923</v>
       </c>
       <c r="Y225" s="6">
-        <f>YEAR(X225)</f>
+        <f t="shared" si="9"/>
         <v>1962</v>
       </c>
       <c r="Z225" s="6">
-        <f>MONTH(X225)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AA225" s="6">
-        <f>DAY(X225)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AB225" s="6" t="s">
@@ -24297,7 +24297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>30</v>
       </c>
@@ -24371,15 +24371,15 @@
         <v>24484</v>
       </c>
       <c r="Y226" s="6">
-        <f>YEAR(X226)</f>
+        <f t="shared" si="9"/>
         <v>1967</v>
       </c>
       <c r="Z226" s="6">
-        <f>MONTH(X226)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA226" s="6">
-        <f>DAY(X226)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AB226" s="6" t="s">
@@ -24392,7 +24392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>30</v>
       </c>
@@ -24466,15 +24466,15 @@
         <v>34022</v>
       </c>
       <c r="Y227" s="6">
-        <f>YEAR(X227)</f>
+        <f t="shared" si="9"/>
         <v>1993</v>
       </c>
       <c r="Z227" s="6">
-        <f>MONTH(X227)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA227" s="6">
-        <f>DAY(X227)</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="AB227" s="6" t="s">
@@ -24487,7 +24487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>30</v>
       </c>
@@ -24561,15 +24561,15 @@
         <v>31154</v>
       </c>
       <c r="Y228" s="6">
-        <f>YEAR(X228)</f>
+        <f t="shared" si="9"/>
         <v>1985</v>
       </c>
       <c r="Z228" s="6">
-        <f>MONTH(X228)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA228" s="6">
-        <f>DAY(X228)</f>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="AB228" s="6" t="s">
@@ -24582,7 +24582,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>30</v>
       </c>
@@ -24656,15 +24656,15 @@
         <v>29036</v>
       </c>
       <c r="Y229" s="6">
-        <f>YEAR(X229)</f>
+        <f t="shared" si="9"/>
         <v>1979</v>
       </c>
       <c r="Z229" s="6">
-        <f>MONTH(X229)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AA229" s="6">
-        <f>DAY(X229)</f>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="AB229" s="6" t="s">
@@ -24677,7 +24677,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>30</v>
       </c>
@@ -24751,15 +24751,15 @@
         <v>22037</v>
       </c>
       <c r="Y230" s="6">
-        <f>YEAR(X230)</f>
+        <f t="shared" si="9"/>
         <v>1960</v>
       </c>
       <c r="Z230" s="6">
-        <f>MONTH(X230)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AA230" s="6">
-        <f>DAY(X230)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB230" s="6" t="s">
@@ -24772,7 +24772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>30</v>
       </c>
@@ -24846,15 +24846,15 @@
         <v>27364</v>
       </c>
       <c r="Y231" s="6">
-        <f>YEAR(X231)</f>
+        <f t="shared" si="9"/>
         <v>1974</v>
       </c>
       <c r="Z231" s="6">
-        <f>MONTH(X231)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="AA231" s="6">
-        <f>DAY(X231)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB231" s="6" t="s">
@@ -24867,7 +24867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>30</v>
       </c>
@@ -24941,15 +24941,15 @@
         <v>29309</v>
       </c>
       <c r="Y232" s="6">
-        <f>YEAR(X232)</f>
+        <f t="shared" si="9"/>
         <v>1980</v>
       </c>
       <c r="Z232" s="6">
-        <f>MONTH(X232)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AA232" s="6">
-        <f>DAY(X232)</f>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="AB232" s="6" t="s">
@@ -24962,7 +24962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>30</v>
       </c>
@@ -25036,15 +25036,15 @@
         <v>32907</v>
       </c>
       <c r="Y233" s="6">
-        <f>YEAR(X233)</f>
+        <f t="shared" si="9"/>
         <v>1990</v>
       </c>
       <c r="Z233" s="6">
-        <f>MONTH(X233)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA233" s="6">
-        <f>DAY(X233)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AB233" s="6" t="s">
@@ -25057,7 +25057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>30</v>
       </c>
@@ -25131,15 +25131,15 @@
         <v>29326</v>
       </c>
       <c r="Y234" s="6">
-        <f>YEAR(X234)</f>
+        <f t="shared" si="9"/>
         <v>1980</v>
       </c>
       <c r="Z234" s="6">
-        <f>MONTH(X234)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA234" s="6">
-        <f>DAY(X234)</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="AB234" s="6" t="s">
@@ -25152,7 +25152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>30</v>
       </c>
@@ -25226,15 +25226,15 @@
         <v>31621</v>
       </c>
       <c r="Y235" s="6">
-        <f>YEAR(X235)</f>
+        <f t="shared" si="9"/>
         <v>1986</v>
       </c>
       <c r="Z235" s="6">
-        <f>MONTH(X235)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="AA235" s="6">
-        <f>DAY(X235)</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="AB235" s="6" t="s">
@@ -25247,7 +25247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>30</v>
       </c>
@@ -25321,15 +25321,15 @@
         <v>23060</v>
       </c>
       <c r="Y236" s="6">
-        <f>YEAR(X236)</f>
+        <f t="shared" si="9"/>
         <v>1963</v>
       </c>
       <c r="Z236" s="6">
-        <f>MONTH(X236)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA236" s="6">
-        <f>DAY(X236)</f>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="AB236" s="6" t="s">
@@ -25342,7 +25342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>30</v>
       </c>
@@ -25416,15 +25416,15 @@
         <v>30899</v>
       </c>
       <c r="Y237" s="6">
-        <f>YEAR(X237)</f>
+        <f t="shared" si="9"/>
         <v>1984</v>
       </c>
       <c r="Z237" s="6">
-        <f>MONTH(X237)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AA237" s="6">
-        <f>DAY(X237)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AB237" s="6" t="s">
@@ -25437,7 +25437,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>30</v>
       </c>
@@ -25511,15 +25511,15 @@
         <v>29400</v>
       </c>
       <c r="Y238" s="1">
-        <f>YEAR(X238)</f>
+        <f t="shared" si="9"/>
         <v>1980</v>
       </c>
       <c r="Z238" s="1">
-        <f>MONTH(X238)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AA238" s="1">
-        <f>DAY(X238)</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="AB238" s="1" t="s">
@@ -25532,7 +25532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>30</v>
       </c>
@@ -25606,15 +25606,15 @@
         <v>23083</v>
       </c>
       <c r="Y239" s="1">
-        <f>YEAR(X239)</f>
+        <f t="shared" si="9"/>
         <v>1963</v>
       </c>
       <c r="Z239" s="1">
-        <f>MONTH(X239)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AA239" s="1">
-        <f>DAY(X239)</f>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="AB239" s="1" t="s">
@@ -25627,7 +25627,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>30</v>
       </c>
@@ -25701,15 +25701,15 @@
         <v>29970</v>
       </c>
       <c r="Y240" s="1">
-        <f>YEAR(X240)</f>
+        <f t="shared" si="9"/>
         <v>1982</v>
       </c>
       <c r="Z240" s="1">
-        <f>MONTH(X240)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA240" s="1">
-        <f>DAY(X240)</f>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="AB240" s="1" t="s">
@@ -25722,7 +25722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>30</v>
       </c>
@@ -25796,15 +25796,15 @@
         <v>33594</v>
       </c>
       <c r="Y241" s="1">
-        <f>YEAR(X241)</f>
+        <f t="shared" si="9"/>
         <v>1991</v>
       </c>
       <c r="Z241" s="1">
-        <f>MONTH(X241)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="AA241" s="1">
-        <f>DAY(X241)</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="AB241" s="1" t="s">
@@ -25817,7 +25817,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>30</v>
       </c>
@@ -25891,15 +25891,15 @@
         <v>30420</v>
       </c>
       <c r="Y242" s="1">
-        <f>YEAR(X242)</f>
+        <f t="shared" si="9"/>
         <v>1983</v>
       </c>
       <c r="Z242" s="1">
-        <f>MONTH(X242)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA242" s="1">
-        <f>DAY(X242)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="AB242" s="1" t="s">
@@ -25910,7 +25910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>30</v>
       </c>
@@ -25984,15 +25984,15 @@
         <v>34442</v>
       </c>
       <c r="Y243" s="1">
-        <f>YEAR(X243)</f>
+        <f t="shared" si="9"/>
         <v>1994</v>
       </c>
       <c r="Z243" s="1">
-        <f>MONTH(X243)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA243" s="1">
-        <f>DAY(X243)</f>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="AB243" s="1" t="s">
@@ -26005,7 +26005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>30</v>
       </c>
@@ -26079,15 +26079,15 @@
         <v>30974</v>
       </c>
       <c r="Y244" s="1">
-        <f>YEAR(X244)</f>
+        <f t="shared" si="9"/>
         <v>1984</v>
       </c>
       <c r="Z244" s="1">
-        <f>MONTH(X244)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AA244" s="1">
-        <f>DAY(X244)</f>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="AB244" s="1" t="s">
@@ -26100,7 +26100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>30</v>
       </c>
@@ -26174,15 +26174,15 @@
         <v>30984</v>
       </c>
       <c r="Y245" s="1">
-        <f>YEAR(X245)</f>
+        <f t="shared" si="9"/>
         <v>1984</v>
       </c>
       <c r="Z245" s="1">
-        <f>MONTH(X245)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AA245" s="1">
-        <f>DAY(X245)</f>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="AB245" s="1" t="s">
@@ -26195,7 +26195,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>30</v>
       </c>
@@ -26269,15 +26269,15 @@
         <v>31950</v>
       </c>
       <c r="Y246" s="6">
-        <f>YEAR(X246)</f>
+        <f t="shared" si="9"/>
         <v>1987</v>
       </c>
       <c r="Z246" s="6">
-        <f>MONTH(X246)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AA246" s="6">
-        <f>DAY(X246)</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="AB246" s="6" t="s">
@@ -26290,7 +26290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>30</v>
       </c>
@@ -26364,15 +26364,15 @@
         <v>26232</v>
       </c>
       <c r="Y247" s="6">
-        <f>YEAR(X247)</f>
+        <f t="shared" si="9"/>
         <v>1971</v>
       </c>
       <c r="Z247" s="6">
-        <f>MONTH(X247)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AA247" s="6">
-        <f>DAY(X247)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="AB247" s="6" t="s">
@@ -26385,7 +26385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>30</v>
       </c>
@@ -26459,15 +26459,15 @@
         <v>32982</v>
       </c>
       <c r="Y248" s="6">
-        <f>YEAR(X248)</f>
+        <f t="shared" si="9"/>
         <v>1990</v>
       </c>
       <c r="Z248" s="6">
-        <f>MONTH(X248)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA248" s="6">
-        <f>DAY(X248)</f>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="AB248" s="6" t="s">
@@ -26480,7 +26480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>30</v>
       </c>
@@ -26554,15 +26554,15 @@
         <v>35367</v>
       </c>
       <c r="Y249" s="6">
-        <f>YEAR(X249)</f>
+        <f t="shared" si="9"/>
         <v>1996</v>
       </c>
       <c r="Z249" s="6">
-        <f>MONTH(X249)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AA249" s="6">
-        <f>DAY(X249)</f>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="AB249" s="6" t="s">
@@ -26575,7 +26575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>30</v>
       </c>
@@ -26649,15 +26649,15 @@
         <v>26611</v>
       </c>
       <c r="Y250" s="6">
-        <f>YEAR(X250)</f>
+        <f t="shared" si="9"/>
         <v>1972</v>
       </c>
       <c r="Z250" s="6">
-        <f>MONTH(X250)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="AA250" s="6">
-        <f>DAY(X250)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AB250" s="6" t="s">
@@ -26670,7 +26670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>30</v>
       </c>
@@ -26744,15 +26744,15 @@
         <v>35335</v>
       </c>
       <c r="Y251" s="6">
-        <f>YEAR(X251)</f>
+        <f t="shared" si="9"/>
         <v>1996</v>
       </c>
       <c r="Z251" s="6">
-        <f>MONTH(X251)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="AA251" s="6">
-        <f>DAY(X251)</f>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="AB251" s="6" t="s">
@@ -26765,7 +26765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>30</v>
       </c>
@@ -26839,15 +26839,15 @@
         <v>32469</v>
       </c>
       <c r="Y252" s="6">
-        <f>YEAR(X252)</f>
+        <f t="shared" si="9"/>
         <v>1988</v>
       </c>
       <c r="Z252" s="6">
-        <f>MONTH(X252)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="AA252" s="6">
-        <f>DAY(X252)</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="AB252" s="6" t="s">
@@ -26858,7 +26858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>30</v>
       </c>
@@ -26932,15 +26932,15 @@
         <v>29349</v>
       </c>
       <c r="Y253" s="6">
-        <f>YEAR(X253)</f>
+        <f t="shared" si="9"/>
         <v>1980</v>
       </c>
       <c r="Z253" s="6">
-        <f>MONTH(X253)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AA253" s="6">
-        <f>DAY(X253)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AB253" s="6" t="s">
@@ -26953,7 +26953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>30</v>
       </c>
@@ -27027,15 +27027,15 @@
         <v>30659</v>
       </c>
       <c r="Y254" s="6">
-        <f>YEAR(X254)</f>
+        <f t="shared" si="9"/>
         <v>1983</v>
       </c>
       <c r="Z254" s="6">
-        <f>MONTH(X254)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="AA254" s="6">
-        <f>DAY(X254)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="AB254" s="6" t="s">
@@ -27048,7 +27048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>30</v>
       </c>
@@ -27122,15 +27122,15 @@
         <v>26393</v>
       </c>
       <c r="Y255" s="6">
-        <f>YEAR(X255)</f>
+        <f t="shared" si="9"/>
         <v>1972</v>
       </c>
       <c r="Z255" s="6">
-        <f>MONTH(X255)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA255" s="6">
-        <f>DAY(X255)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AB255" s="6" t="s">
@@ -27143,7 +27143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>30</v>
       </c>
@@ -27217,15 +27217,15 @@
         <v>21557</v>
       </c>
       <c r="Y256" s="6">
-        <f>YEAR(X256)</f>
+        <f t="shared" si="9"/>
         <v>1959</v>
       </c>
       <c r="Z256" s="6">
-        <f>MONTH(X256)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA256" s="6">
-        <f>DAY(X256)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AB256" s="6" t="s">
@@ -27238,7 +27238,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>30</v>
       </c>
@@ -27312,15 +27312,15 @@
         <v>33396</v>
       </c>
       <c r="Y257" s="6">
-        <f>YEAR(X257)</f>
+        <f t="shared" si="9"/>
         <v>1991</v>
       </c>
       <c r="Z257" s="6">
-        <f>MONTH(X257)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AA257" s="6">
-        <f>DAY(X257)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AB257" s="6" t="s">
@@ -27333,7 +27333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>30</v>
       </c>
@@ -27407,15 +27407,15 @@
         <v>28373</v>
       </c>
       <c r="Y258" s="6">
-        <f>YEAR(X258)</f>
+        <f t="shared" si="9"/>
         <v>1977</v>
       </c>
       <c r="Z258" s="6">
-        <f>MONTH(X258)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="AA258" s="6">
-        <f>DAY(X258)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AB258" s="6" t="s">
@@ -27428,7 +27428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>30</v>
       </c>
@@ -27502,15 +27502,15 @@
         <v>22917</v>
       </c>
       <c r="Y259" s="1">
-        <f>YEAR(X259)</f>
+        <f t="shared" ref="Y259:Y322" si="12">YEAR(X259)</f>
         <v>1962</v>
       </c>
       <c r="Z259" s="1">
-        <f>MONTH(X259)</f>
+        <f t="shared" ref="Z259:Z322" si="13">MONTH(X259)</f>
         <v>9</v>
       </c>
       <c r="AA259" s="1">
-        <f>DAY(X259)</f>
+        <f t="shared" ref="AA259:AA322" si="14">DAY(X259)</f>
         <v>28</v>
       </c>
       <c r="AB259" s="1" t="s">
@@ -27523,7 +27523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>30</v>
       </c>
@@ -27597,15 +27597,15 @@
         <v>30886</v>
       </c>
       <c r="Y260" s="1">
-        <f>YEAR(X260)</f>
+        <f t="shared" si="12"/>
         <v>1984</v>
       </c>
       <c r="Z260" s="1">
-        <f>MONTH(X260)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AA260" s="1">
-        <f>DAY(X260)</f>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="AB260" s="1" t="s">
@@ -27618,7 +27618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>30</v>
       </c>
@@ -27692,15 +27692,15 @@
         <v>23910</v>
       </c>
       <c r="Y261" s="1">
-        <f>YEAR(X261)</f>
+        <f t="shared" si="12"/>
         <v>1965</v>
       </c>
       <c r="Z261" s="1">
-        <f>MONTH(X261)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AA261" s="1">
-        <f>DAY(X261)</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="AB261" s="1" t="s">
@@ -27713,7 +27713,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>30</v>
       </c>
@@ -27787,15 +27787,15 @@
         <v>29018</v>
       </c>
       <c r="Y262" s="1">
-        <f>YEAR(X262)</f>
+        <f t="shared" si="12"/>
         <v>1979</v>
       </c>
       <c r="Z262" s="1">
-        <f>MONTH(X262)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AA262" s="1">
-        <f>DAY(X262)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="AB262" s="1" t="s">
@@ -27808,7 +27808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>30</v>
       </c>
@@ -27882,15 +27882,15 @@
         <v>23408</v>
       </c>
       <c r="Y263" s="1">
-        <f>YEAR(X263)</f>
+        <f t="shared" si="12"/>
         <v>1964</v>
       </c>
       <c r="Z263" s="1">
-        <f>MONTH(X263)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AA263" s="1">
-        <f>DAY(X263)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AB263" s="1" t="s">
@@ -27903,7 +27903,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>30</v>
       </c>
@@ -27977,15 +27977,15 @@
         <v>34103</v>
       </c>
       <c r="Y264" s="1">
-        <f>YEAR(X264)</f>
+        <f t="shared" si="12"/>
         <v>1993</v>
       </c>
       <c r="Z264" s="1">
-        <f>MONTH(X264)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AA264" s="1">
-        <f>DAY(X264)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="AB264" s="1" t="s">
@@ -27998,7 +27998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>30</v>
       </c>
@@ -28072,15 +28072,15 @@
         <v>29127</v>
       </c>
       <c r="Y265" s="1">
-        <f>YEAR(X265)</f>
+        <f t="shared" si="12"/>
         <v>1979</v>
       </c>
       <c r="Z265" s="1">
-        <f>MONTH(X265)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="AA265" s="1">
-        <f>DAY(X265)</f>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="AB265" s="1" t="s">
@@ -28093,7 +28093,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>30</v>
       </c>
@@ -28167,15 +28167,15 @@
         <v>27445</v>
       </c>
       <c r="Y266" s="1">
-        <f>YEAR(X266)</f>
+        <f t="shared" si="12"/>
         <v>1975</v>
       </c>
       <c r="Z266" s="1">
-        <f>MONTH(X266)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AA266" s="1">
-        <f>DAY(X266)</f>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="AB266" s="1" t="s">
@@ -28188,7 +28188,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>30</v>
       </c>
@@ -28262,15 +28262,15 @@
         <v>21930</v>
       </c>
       <c r="Y267" s="1">
-        <f>YEAR(X267)</f>
+        <f t="shared" si="12"/>
         <v>1960</v>
       </c>
       <c r="Z267" s="1">
-        <f>MONTH(X267)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA267" s="1">
-        <f>DAY(X267)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="AB267" s="1" t="s">
@@ -28283,7 +28283,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>30</v>
       </c>
@@ -28357,15 +28357,15 @@
         <v>28158</v>
       </c>
       <c r="Y268" s="1">
-        <f>YEAR(X268)</f>
+        <f t="shared" si="12"/>
         <v>1977</v>
       </c>
       <c r="Z268" s="1">
-        <f>MONTH(X268)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AA268" s="1">
-        <f>DAY(X268)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AB268" s="1" t="s">
@@ -28378,7 +28378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>30</v>
       </c>
@@ -28452,15 +28452,15 @@
         <v>29216</v>
       </c>
       <c r="Y269" s="6">
-        <f>YEAR(X269)</f>
+        <f t="shared" si="12"/>
         <v>1979</v>
       </c>
       <c r="Z269" s="6">
-        <f>MONTH(X269)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AA269" s="6">
-        <f>DAY(X269)</f>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="AB269" s="6" t="s">
@@ -28473,7 +28473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>30</v>
       </c>
@@ -28547,15 +28547,15 @@
         <v>31876</v>
       </c>
       <c r="Y270" s="6">
-        <f>YEAR(X270)</f>
+        <f t="shared" si="12"/>
         <v>1987</v>
       </c>
       <c r="Z270" s="6">
-        <f>MONTH(X270)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AA270" s="6">
-        <f>DAY(X270)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AB270" s="6" t="s">
@@ -28568,7 +28568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>30</v>
       </c>
@@ -28642,15 +28642,15 @@
         <v>28543</v>
       </c>
       <c r="Y271" s="6">
-        <f>YEAR(X271)</f>
+        <f t="shared" si="12"/>
         <v>1978</v>
       </c>
       <c r="Z271" s="6">
-        <f>MONTH(X271)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AA271" s="6">
-        <f>DAY(X271)</f>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="AB271" s="6" t="s">
@@ -28663,7 +28663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>30</v>
       </c>
@@ -28737,15 +28737,15 @@
         <v>25478</v>
       </c>
       <c r="Y272" s="6">
-        <f>YEAR(X272)</f>
+        <f t="shared" si="12"/>
         <v>1969</v>
       </c>
       <c r="Z272" s="6">
-        <f>MONTH(X272)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AA272" s="6">
-        <f>DAY(X272)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AB272" s="6" t="s">
@@ -28758,7 +28758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>30</v>
       </c>
@@ -28832,15 +28832,15 @@
         <v>30466</v>
       </c>
       <c r="Y273" s="6">
-        <f>YEAR(X273)</f>
+        <f t="shared" si="12"/>
         <v>1983</v>
       </c>
       <c r="Z273" s="6">
-        <f>MONTH(X273)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AA273" s="6">
-        <f>DAY(X273)</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="AB273" s="6" t="s">
@@ -28853,7 +28853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>30</v>
       </c>
@@ -28927,15 +28927,15 @@
         <v>28178</v>
       </c>
       <c r="Y274" s="6">
-        <f>YEAR(X274)</f>
+        <f t="shared" si="12"/>
         <v>1977</v>
       </c>
       <c r="Z274" s="6">
-        <f>MONTH(X274)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AA274" s="6">
-        <f>DAY(X274)</f>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="AB274" s="6" t="s">
@@ -28948,7 +28948,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>30</v>
       </c>
@@ -29022,15 +29022,15 @@
         <v>26487</v>
       </c>
       <c r="Y275" s="6">
-        <f>YEAR(X275)</f>
+        <f t="shared" si="12"/>
         <v>1972</v>
       </c>
       <c r="Z275" s="6">
-        <f>MONTH(X275)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AA275" s="6">
-        <f>DAY(X275)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="AB275" s="6" t="s">
@@ -29043,7 +29043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>30</v>
       </c>
@@ -29117,15 +29117,15 @@
         <v>27926</v>
       </c>
       <c r="Y276" s="6">
-        <f>YEAR(X276)</f>
+        <f t="shared" si="12"/>
         <v>1976</v>
       </c>
       <c r="Z276" s="6">
-        <f>MONTH(X276)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AA276" s="6">
-        <f>DAY(X276)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="AB276" s="6" t="s">
@@ -29138,7 +29138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>30</v>
       </c>
@@ -29212,15 +29212,15 @@
         <v>28522</v>
       </c>
       <c r="Y277" s="6">
-        <f>YEAR(X277)</f>
+        <f t="shared" si="12"/>
         <v>1978</v>
       </c>
       <c r="Z277" s="6">
-        <f>MONTH(X277)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AA277" s="6">
-        <f>DAY(X277)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AB277" s="6" t="s">
@@ -29233,7 +29233,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="13" t="s">
         <v>30</v>
       </c>
@@ -29307,15 +29307,15 @@
         <v>23696</v>
       </c>
       <c r="Y278" s="13">
-        <f>YEAR(X278)</f>
+        <f t="shared" si="12"/>
         <v>1964</v>
       </c>
       <c r="Z278" s="13">
-        <f>MONTH(X278)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AA278" s="13">
-        <f>DAY(X278)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="AB278" s="1" t="s">
@@ -29328,7 +29328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="13" t="s">
         <v>30</v>
       </c>
@@ -29402,15 +29402,15 @@
         <v>24031</v>
       </c>
       <c r="Y279" s="13">
-        <f>YEAR(X279)</f>
+        <f t="shared" si="12"/>
         <v>1965</v>
       </c>
       <c r="Z279" s="13">
-        <f>MONTH(X279)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AA279" s="13">
-        <f>DAY(X279)</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="AB279" s="1" t="s">
@@ -29423,7 +29423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="13" t="s">
         <v>30</v>
       </c>
@@ -29497,15 +29497,15 @@
         <v>24216</v>
       </c>
       <c r="Y280" s="13">
-        <f>YEAR(X280)</f>
+        <f t="shared" si="12"/>
         <v>1966</v>
       </c>
       <c r="Z280" s="13">
-        <f>MONTH(X280)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AA280" s="13">
-        <f>DAY(X280)</f>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="AB280" s="1" t="s">
@@ -29518,7 +29518,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="13" t="s">
         <v>30</v>
       </c>
@@ -29592,15 +29592,15 @@
         <v>27428</v>
       </c>
       <c r="Y281" s="13">
-        <f>YEAR(X281)</f>
+        <f t="shared" si="12"/>
         <v>1975</v>
       </c>
       <c r="Z281" s="13">
-        <f>MONTH(X281)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AA281" s="13">
-        <f>DAY(X281)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AB281" s="1" t="s">
@@ -29613,7 +29613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="13" t="s">
         <v>30</v>
       </c>
@@ -29687,15 +29687,15 @@
         <v>24432</v>
       </c>
       <c r="Y282" s="13">
-        <f>YEAR(X282)</f>
+        <f t="shared" si="12"/>
         <v>1966</v>
       </c>
       <c r="Z282" s="13">
-        <f>MONTH(X282)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AA282" s="13">
-        <f>DAY(X282)</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="AB282" s="1" t="s">
@@ -29708,7 +29708,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="13" t="s">
         <v>30</v>
       </c>
@@ -29782,15 +29782,15 @@
         <v>32617</v>
       </c>
       <c r="Y283" s="13">
-        <f>YEAR(X283)</f>
+        <f t="shared" si="12"/>
         <v>1989</v>
       </c>
       <c r="Z283" s="13">
-        <f>MONTH(X283)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AA283" s="13">
-        <f>DAY(X283)</f>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="AB283" s="1" t="s">
@@ -29803,7 +29803,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="13" t="s">
         <v>30</v>
       </c>
@@ -29877,15 +29877,15 @@
         <v>29519</v>
       </c>
       <c r="Y284" s="13">
-        <f>YEAR(X284)</f>
+        <f t="shared" si="12"/>
         <v>1980</v>
       </c>
       <c r="Z284" s="13">
-        <f>MONTH(X284)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AA284" s="13">
-        <f>DAY(X284)</f>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="AB284" s="1" t="s">
@@ -29898,7 +29898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="13" t="s">
         <v>30</v>
       </c>
@@ -29972,15 +29972,15 @@
         <v>29940</v>
       </c>
       <c r="Y285" s="13">
-        <f>YEAR(X285)</f>
+        <f t="shared" si="12"/>
         <v>1981</v>
       </c>
       <c r="Z285" s="13">
-        <f>MONTH(X285)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AA285" s="13">
-        <f>DAY(X285)</f>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="AB285" s="1" t="s">
@@ -29993,7 +29993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="13" t="s">
         <v>30</v>
       </c>
@@ -30067,15 +30067,15 @@
         <v>25213</v>
       </c>
       <c r="Y286" s="13">
-        <f>YEAR(X286)</f>
+        <f t="shared" si="12"/>
         <v>1969</v>
       </c>
       <c r="Z286" s="13">
-        <f>MONTH(X286)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA286" s="13">
-        <f>DAY(X286)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="AB286" s="1" t="s">
@@ -30088,7 +30088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="13" t="s">
         <v>30</v>
       </c>
@@ -30162,15 +30162,15 @@
         <v>31815</v>
       </c>
       <c r="Y287" s="13">
-        <f>YEAR(X287)</f>
+        <f t="shared" si="12"/>
         <v>1987</v>
       </c>
       <c r="Z287" s="13">
-        <f>MONTH(X287)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AA287" s="13">
-        <f>DAY(X287)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="AB287" s="1" t="s">
@@ -30183,7 +30183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="13" t="s">
         <v>30</v>
       </c>
@@ -30257,15 +30257,15 @@
         <v>28892</v>
       </c>
       <c r="Y288" s="13">
-        <f>YEAR(X288)</f>
+        <f t="shared" si="12"/>
         <v>1979</v>
       </c>
       <c r="Z288" s="13">
-        <f>MONTH(X288)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AA288" s="13">
-        <f>DAY(X288)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AB288" s="1" t="s">
@@ -30278,7 +30278,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="289" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="13" t="s">
         <v>30</v>
       </c>
@@ -30352,15 +30352,15 @@
         <v>24818</v>
       </c>
       <c r="Y289" s="13">
-        <f>YEAR(X289)</f>
+        <f t="shared" si="12"/>
         <v>1967</v>
       </c>
       <c r="Z289" s="13">
-        <f>MONTH(X289)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AA289" s="13">
-        <f>DAY(X289)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="AB289" s="1" t="s">
@@ -30373,7 +30373,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="290" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="13" t="s">
         <v>30</v>
       </c>
@@ -30447,15 +30447,15 @@
         <v>30432</v>
       </c>
       <c r="Y290" s="13">
-        <f>YEAR(X290)</f>
+        <f t="shared" si="12"/>
         <v>1983</v>
       </c>
       <c r="Z290" s="13">
-        <f>MONTH(X290)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AA290" s="13">
-        <f>DAY(X290)</f>
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="AB290" s="1" t="s">
@@ -30468,7 +30468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="291" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="13" t="s">
         <v>30</v>
       </c>
@@ -30542,15 +30542,15 @@
         <v>32837</v>
       </c>
       <c r="Y291" s="13">
-        <f>YEAR(X291)</f>
+        <f t="shared" si="12"/>
         <v>1989</v>
       </c>
       <c r="Z291" s="13">
-        <f>MONTH(X291)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AA291" s="13">
-        <f>DAY(X291)</f>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="AB291" s="1" t="s">
@@ -30563,7 +30563,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="292" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>30</v>
       </c>
@@ -30637,15 +30637,15 @@
         <v>27427</v>
       </c>
       <c r="Y292" s="6">
-        <f>YEAR(X292)</f>
+        <f t="shared" si="12"/>
         <v>1975</v>
       </c>
       <c r="Z292" s="6">
-        <f>MONTH(X292)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AA292" s="6">
-        <f>DAY(X292)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AB292" s="6" t="s">
@@ -30658,7 +30658,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="293" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>30</v>
       </c>
@@ -30732,15 +30732,15 @@
         <v>31166</v>
       </c>
       <c r="Y293" s="6">
-        <f>YEAR(X293)</f>
+        <f t="shared" si="12"/>
         <v>1985</v>
       </c>
       <c r="Z293" s="6">
-        <f>MONTH(X293)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AA293" s="6">
-        <f>DAY(X293)</f>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="AB293" s="6" t="s">
@@ -30753,7 +30753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="294" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>30</v>
       </c>
@@ -30827,15 +30827,15 @@
         <v>26938</v>
       </c>
       <c r="Y294" s="6">
-        <f>YEAR(X294)</f>
+        <f t="shared" si="12"/>
         <v>1973</v>
       </c>
       <c r="Z294" s="6">
-        <f>MONTH(X294)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AA294" s="6">
-        <f>DAY(X294)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AB294" s="6" t="s">
@@ -30846,7 +30846,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="295" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>30</v>
       </c>
@@ -30920,15 +30920,15 @@
         <v>28503</v>
       </c>
       <c r="Y295" s="6">
-        <f>YEAR(X295)</f>
+        <f t="shared" si="12"/>
         <v>1978</v>
       </c>
       <c r="Z295" s="6">
-        <f>MONTH(X295)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA295" s="6">
-        <f>DAY(X295)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="AB295" s="6" t="s">
@@ -30941,7 +30941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="296" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>30</v>
       </c>
@@ -31015,15 +31015,15 @@
         <v>25084</v>
       </c>
       <c r="Y296" s="6">
-        <f>YEAR(X296)</f>
+        <f t="shared" si="12"/>
         <v>1968</v>
       </c>
       <c r="Z296" s="6">
-        <f>MONTH(X296)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="AA296" s="6">
-        <f>DAY(X296)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AB296" s="6" t="s">
@@ -31034,7 +31034,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="297" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>30</v>
       </c>
@@ -31108,15 +31108,15 @@
         <v>27890</v>
       </c>
       <c r="Y297" s="6">
-        <f>YEAR(X297)</f>
+        <f t="shared" si="12"/>
         <v>1976</v>
       </c>
       <c r="Z297" s="6">
-        <f>MONTH(X297)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AA297" s="6">
-        <f>DAY(X297)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="AB297" s="6" t="s">
@@ -31129,7 +31129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="298" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>30</v>
       </c>
@@ -31203,15 +31203,15 @@
         <v>33801</v>
       </c>
       <c r="Y298" s="6">
-        <f>YEAR(X298)</f>
+        <f t="shared" si="12"/>
         <v>1992</v>
       </c>
       <c r="Z298" s="6">
-        <f>MONTH(X298)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AA298" s="6">
-        <f>DAY(X298)</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="AB298" s="6" t="s">
@@ -31224,7 +31224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>30</v>
       </c>
@@ -31298,15 +31298,15 @@
         <v>27094</v>
       </c>
       <c r="Y299" s="6">
-        <f>YEAR(X299)</f>
+        <f t="shared" si="12"/>
         <v>1974</v>
       </c>
       <c r="Z299" s="6">
-        <f>MONTH(X299)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AA299" s="6">
-        <f>DAY(X299)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AB299" s="6" t="s">
@@ -31319,7 +31319,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="300" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>30</v>
       </c>
@@ -31393,15 +31393,15 @@
         <v>22477</v>
       </c>
       <c r="Y300" s="6">
-        <f>YEAR(X300)</f>
+        <f t="shared" si="12"/>
         <v>1961</v>
       </c>
       <c r="Z300" s="6">
-        <f>MONTH(X300)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AA300" s="6">
-        <f>DAY(X300)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="AB300" s="6" t="s">
@@ -31412,7 +31412,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="301" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>30</v>
       </c>
@@ -31486,15 +31486,15 @@
         <v>25317</v>
       </c>
       <c r="Y301" s="6">
-        <f>YEAR(X301)</f>
+        <f t="shared" si="12"/>
         <v>1969</v>
       </c>
       <c r="Z301" s="6">
-        <f>MONTH(X301)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AA301" s="6">
-        <f>DAY(X301)</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="AB301" s="6" t="s">
@@ -31507,7 +31507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="302" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>30</v>
       </c>
@@ -31581,15 +31581,15 @@
         <v>32431</v>
       </c>
       <c r="Y302" s="6">
-        <f>YEAR(X302)</f>
+        <f t="shared" si="12"/>
         <v>1988</v>
       </c>
       <c r="Z302" s="6">
-        <f>MONTH(X302)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AA302" s="6">
-        <f>DAY(X302)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="AB302" s="6" t="s">
@@ -31602,7 +31602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>30</v>
       </c>
@@ -31676,15 +31676,15 @@
         <v>35033</v>
       </c>
       <c r="Y303" s="6">
-        <f>YEAR(X303)</f>
+        <f t="shared" si="12"/>
         <v>1995</v>
       </c>
       <c r="Z303" s="6">
-        <f>MONTH(X303)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AA303" s="6">
-        <f>DAY(X303)</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="AB303" s="6" t="s">
@@ -31697,7 +31697,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="304" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>30</v>
       </c>
@@ -31771,15 +31771,15 @@
         <v>24000</v>
       </c>
       <c r="Y304" s="6">
-        <f>YEAR(X304)</f>
+        <f t="shared" si="12"/>
         <v>1965</v>
       </c>
       <c r="Z304" s="6">
-        <f>MONTH(X304)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="AA304" s="6">
-        <f>DAY(X304)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="AB304" s="6" t="s">
@@ -31792,7 +31792,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="305" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>30</v>
       </c>
@@ -31866,15 +31866,15 @@
         <v>25325</v>
       </c>
       <c r="Y305" s="6">
-        <f>YEAR(X305)</f>
+        <f t="shared" si="12"/>
         <v>1969</v>
       </c>
       <c r="Z305" s="6">
-        <f>MONTH(X305)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AA305" s="6">
-        <f>DAY(X305)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AB305" s="6" t="s">
@@ -31887,7 +31887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="306" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>30</v>
       </c>
@@ -31961,15 +31961,15 @@
         <v>28456</v>
       </c>
       <c r="Y306" s="1">
-        <f>YEAR(X306)</f>
+        <f t="shared" si="12"/>
         <v>1977</v>
       </c>
       <c r="Z306" s="1">
-        <f>MONTH(X306)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AA306" s="1">
-        <f>DAY(X306)</f>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="AB306" s="1" t="s">
@@ -31982,7 +31982,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="307" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>30</v>
       </c>
@@ -32056,15 +32056,15 @@
         <v>30510</v>
       </c>
       <c r="Y307" s="1">
-        <f>YEAR(X307)</f>
+        <f t="shared" si="12"/>
         <v>1983</v>
       </c>
       <c r="Z307" s="1">
-        <f>MONTH(X307)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AA307" s="1">
-        <f>DAY(X307)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="AB307" s="1" t="s">
@@ -32077,7 +32077,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="308" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>30</v>
       </c>
@@ -32151,15 +32151,15 @@
         <v>28094</v>
       </c>
       <c r="Y308" s="1">
-        <f>YEAR(X308)</f>
+        <f t="shared" si="12"/>
         <v>1976</v>
       </c>
       <c r="Z308" s="1">
-        <f>MONTH(X308)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AA308" s="1">
-        <f>DAY(X308)</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="AB308" s="1" t="s">
@@ -32172,7 +32172,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>30</v>
       </c>
@@ -32246,15 +32246,15 @@
         <v>27968</v>
       </c>
       <c r="Y309" s="1">
-        <f>YEAR(X309)</f>
+        <f t="shared" si="12"/>
         <v>1976</v>
       </c>
       <c r="Z309" s="1">
-        <f>MONTH(X309)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AA309" s="1">
-        <f>DAY(X309)</f>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="AB309" s="1" t="s">
@@ -32267,7 +32267,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="310" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>30</v>
       </c>
@@ -32341,15 +32341,15 @@
         <v>22321</v>
       </c>
       <c r="Y310" s="1">
-        <f>YEAR(X310)</f>
+        <f t="shared" si="12"/>
         <v>1961</v>
       </c>
       <c r="Z310" s="1">
-        <f>MONTH(X310)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AA310" s="1">
-        <f>DAY(X310)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AB310" s="1" t="s">
@@ -32362,7 +32362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="311" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>30</v>
       </c>
@@ -32436,15 +32436,15 @@
         <v>23188</v>
       </c>
       <c r="Y311" s="1">
-        <f>YEAR(X311)</f>
+        <f t="shared" si="12"/>
         <v>1963</v>
       </c>
       <c r="Z311" s="1">
-        <f>MONTH(X311)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AA311" s="1">
-        <f>DAY(X311)</f>
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="AB311" s="1" t="s">
@@ -32457,7 +32457,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="312" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>30</v>
       </c>
@@ -32531,15 +32531,15 @@
         <v>30940</v>
       </c>
       <c r="Y312" s="1">
-        <f>YEAR(X312)</f>
+        <f t="shared" si="12"/>
         <v>1984</v>
       </c>
       <c r="Z312" s="1">
-        <f>MONTH(X312)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="AA312" s="1">
-        <f>DAY(X312)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="AB312" s="1" t="s">
@@ -32550,7 +32550,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="313" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>30</v>
       </c>
@@ -32624,15 +32624,15 @@
         <v>33899</v>
       </c>
       <c r="Y313" s="1">
-        <f>YEAR(X313)</f>
+        <f t="shared" si="12"/>
         <v>1992</v>
       </c>
       <c r="Z313" s="1">
-        <f>MONTH(X313)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AA313" s="1">
-        <f>DAY(X313)</f>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="AB313" s="1" t="s">
@@ -32645,7 +32645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="314" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>30</v>
       </c>
@@ -32719,15 +32719,15 @@
         <v>25587</v>
       </c>
       <c r="Y314" s="1">
-        <f>YEAR(X314)</f>
+        <f t="shared" si="12"/>
         <v>1970</v>
       </c>
       <c r="Z314" s="1">
-        <f>MONTH(X314)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA314" s="1">
-        <f>DAY(X314)</f>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="AB314" s="1" t="s">
@@ -32740,7 +32740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="315" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>30</v>
       </c>
@@ -32814,15 +32814,15 @@
         <v>31777</v>
       </c>
       <c r="Y315" s="1">
-        <f>YEAR(X315)</f>
+        <f t="shared" si="12"/>
         <v>1986</v>
       </c>
       <c r="Z315" s="1">
-        <f>MONTH(X315)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AA315" s="1">
-        <f>DAY(X315)</f>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="AB315" s="1" t="s">
@@ -32835,7 +32835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="316" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>30</v>
       </c>
@@ -32909,15 +32909,15 @@
         <v>32865</v>
       </c>
       <c r="Y316" s="1">
-        <f>YEAR(X316)</f>
+        <f t="shared" si="12"/>
         <v>1989</v>
       </c>
       <c r="Z316" s="1">
-        <f>MONTH(X316)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AA316" s="1">
-        <f>DAY(X316)</f>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="AB316" s="1" t="s">
@@ -32928,7 +32928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="317" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>30</v>
       </c>
@@ -33002,15 +33002,15 @@
         <v>25175</v>
       </c>
       <c r="Y317" s="1">
-        <f>YEAR(X317)</f>
+        <f t="shared" si="12"/>
         <v>1968</v>
       </c>
       <c r="Z317" s="1">
-        <f>MONTH(X317)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AA317" s="1">
-        <f>DAY(X317)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AB317" s="1" t="s">
@@ -33021,7 +33021,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="318" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>30</v>
       </c>
@@ -33095,15 +33095,15 @@
         <v>30815</v>
       </c>
       <c r="Y318" s="18">
-        <f>YEAR(X318)</f>
+        <f t="shared" si="12"/>
         <v>1984</v>
       </c>
       <c r="Z318" s="18">
-        <f>MONTH(X318)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AA318" s="18">
-        <f>DAY(X318)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="AB318" s="18" t="s">
@@ -33116,7 +33116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="319" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>30</v>
       </c>
@@ -33190,15 +33190,15 @@
         <v>28735</v>
       </c>
       <c r="Y319" s="6">
-        <f>YEAR(X319)</f>
+        <f t="shared" si="12"/>
         <v>1978</v>
       </c>
       <c r="Z319" s="6">
-        <f>MONTH(X319)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="AA319" s="6">
-        <f>DAY(X319)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AB319" s="6" t="s">
@@ -33211,7 +33211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="320" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>30</v>
       </c>
@@ -33285,15 +33285,15 @@
         <v>24839</v>
       </c>
       <c r="Y320" s="6">
-        <f>YEAR(X320)</f>
+        <f t="shared" si="12"/>
         <v>1968</v>
       </c>
       <c r="Z320" s="6">
-        <f>MONTH(X320)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA320" s="6">
-        <f>DAY(X320)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AB320" s="6" t="s">
@@ -33306,7 +33306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="321" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>30</v>
       </c>
@@ -33380,15 +33380,15 @@
         <v>26576</v>
       </c>
       <c r="Y321" s="6">
-        <f>YEAR(X321)</f>
+        <f t="shared" si="12"/>
         <v>1972</v>
       </c>
       <c r="Z321" s="6">
-        <f>MONTH(X321)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AA321" s="6">
-        <f>DAY(X321)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AB321" s="6" t="s">
@@ -33401,7 +33401,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>30</v>
       </c>
@@ -33475,15 +33475,15 @@
         <v>31237</v>
       </c>
       <c r="Y322" s="6">
-        <f>YEAR(X322)</f>
+        <f t="shared" si="12"/>
         <v>1985</v>
       </c>
       <c r="Z322" s="6">
-        <f>MONTH(X322)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AA322" s="6">
-        <f>DAY(X322)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AB322" s="6" t="s">
@@ -33494,314 +33494,342 @@
         <v>46</v>
       </c>
     </row>
-    <row r="337" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="499" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="500" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="501" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="502" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="503" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="504" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="506" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="507" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="508" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="509" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="510" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="511" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="512" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="513" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="515" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="516" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="517" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="518" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="519" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="520" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="521" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="522" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="524" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="525" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="526" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="527" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="528" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="529" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="530" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="531" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="532" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="533" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="535" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="536" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="537" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="538" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="539" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="540" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="541" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="542" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="543" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="544" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="546" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="547" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="548" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="549" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="550" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="551" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="552" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="553" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="554" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="555" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="557" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="558" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="559" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="560" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="561" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="562" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="563" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="564" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="565" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="567" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="568" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="569" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="570" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="571" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="572" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="573" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="574" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="575" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="576" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="577" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="578" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="579" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="580" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="581" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="582" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="583" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="584" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="585" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="586" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="587" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="588" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="589" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="590" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="591" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="592" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="593" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="594" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="595" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="596" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="597" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="598" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="599" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="600" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="601" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="602" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="603" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="604" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="605" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="606" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="607" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="608" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="609" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="610" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="611" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="612" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="613" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="614" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="615" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="616" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="617" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="618" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="619" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="620" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="621" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="622" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="623" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="624" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="625" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="626" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="627" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="628" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="629" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="630" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="631" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="632" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="633" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="634" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="635" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="636" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="637" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="638" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="639" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="640" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="641" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="642" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="338" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="339" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="340" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="341" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="342" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="343" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="344" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="345" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="346" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="347" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="348" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="349" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="350" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="351" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="352" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="353" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="354" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="355" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="356" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="357" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="358" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="359" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="360" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="361" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="362" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="363" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="364" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="365" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="366" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="367" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="368" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="369" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="370" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="371" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="372" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="373" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="374" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="375" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="376" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="377" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="378" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="379" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="380" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="381" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="382" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="383" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="384" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="385" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="386" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="387" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="388" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="389" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="390" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="391" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="392" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="393" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="394" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="395" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="396" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="397" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="398" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="399" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="400" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="401" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="402" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="403" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="404" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="405" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="406" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="407" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="408" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="409" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="410" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="411" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="412" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="413" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="414" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="415" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="416" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="417" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="418" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="419" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="420" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="421" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="422" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="423" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="424" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="425" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="426" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="427" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="428" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="429" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="430" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="431" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="432" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="433" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="434" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="435" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="436" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="437" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="438" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="439" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="440" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="441" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="442" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="443" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="444" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="445" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="446" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="447" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="448" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="449" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="450" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="451" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="452" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="453" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="454" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="455" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="456" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="457" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="458" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="459" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="460" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="461" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="462" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="463" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="464" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="465" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="466" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="467" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="468" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="469" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="470" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="471" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="472" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="473" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="474" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="475" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="476" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="477" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="478" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="479" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="480" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="481" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="482" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="483" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="484" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="485" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="486" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="487" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="488" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="489" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="490" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="491" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="492" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="493" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="494" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="495" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="496" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="497" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="498" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="499" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="500" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="501" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="502" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="503" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="504" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="505" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="506" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="507" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="508" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="509" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="510" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="511" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="512" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="513" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="514" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="515" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="516" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="517" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="518" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="519" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="520" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="521" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="522" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="523" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="524" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="525" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="526" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="527" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="528" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="529" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="530" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="531" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="532" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="533" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="534" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="535" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="536" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="537" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="538" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="539" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="540" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="541" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="542" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="543" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="544" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="545" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="546" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="547" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="548" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="549" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="550" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="551" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="552" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="553" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="554" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="555" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="556" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="557" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="558" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="559" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="560" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="561" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="562" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="563" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="564" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="565" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="566" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="567" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="568" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="569" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="570" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="571" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="572" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="573" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="574" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="575" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="576" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="577" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="578" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="579" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="580" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="581" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="582" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="583" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="584" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="585" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="586" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="587" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="588" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="589" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="590" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="591" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="592" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="593" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="594" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="595" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="596" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="597" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="598" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="599" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="600" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="601" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="602" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="603" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="604" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="605" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="606" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="607" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="608" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="609" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="610" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="611" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="612" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="613" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="614" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="615" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="616" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="617" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="618" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="619" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="620" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="621" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="622" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="623" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="624" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="625" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="626" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="627" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="628" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="629" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="630" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="631" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="632" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="633" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="634" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="635" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="636" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="637" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="638" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="639" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="640" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="641" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="642" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A2:XFD322" xr:uid="{61C45058-0F84-44B4-9BBB-85F83CAC53D4}"/>
+  <autoFilter ref="A2:XFD322" xr:uid="{61C45058-0F84-44B4-9BBB-85F83CAC53D4}">
+    <filterColumn colId="29">
+      <filters>
+        <filter val="ALGERIE"/>
+        <filter val="Allemagne"/>
+        <filter val="ARGENTINE"/>
+        <filter val="BELGIQUE"/>
+        <filter val="BRESIL"/>
+        <filter val="BULGARIE"/>
+        <filter val="CAMEROUN"/>
+        <filter val="COREE"/>
+        <filter val="COTE D'IVOIRE"/>
+        <filter val="ESPAGNE"/>
+        <filter val="FIGEAC"/>
+        <filter val="GHANA"/>
+        <filter val="HONGRIE"/>
+        <filter val="LUXEMBOURG"/>
+        <filter val="MADAGASCAR"/>
+        <filter val="MAROC"/>
+        <filter val="PEROU"/>
+        <filter val="POLYNESIE FRANCAISE"/>
+        <filter val="PORTUGAL"/>
+        <filter val="PRINCIPAUTE DE MONACO"/>
+        <filter val="SENEGAL"/>
+        <filter val="SEYCHELLES"/>
+        <filter val="TURQUIE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>